--- a/data/output/best_policy_0.xlsx
+++ b/data/output/best_policy_0.xlsx
@@ -395,19 +395,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F2">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -415,19 +415,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F3">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -435,19 +435,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F4">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -455,19 +455,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F6">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F7">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,19 +515,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F8">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -535,19 +535,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F9">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -555,19 +555,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F10">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -575,19 +575,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F11">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -595,19 +595,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F12">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -615,19 +615,19 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F13">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -635,19 +635,19 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F14">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -655,19 +655,19 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F15">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -675,19 +675,19 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F16">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -695,19 +695,19 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F17">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -715,19 +715,19 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F18">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -735,19 +735,19 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F19">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -755,19 +755,19 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F20">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -775,19 +775,19 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F21">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -795,19 +795,19 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F22">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -815,19 +815,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F23">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -835,19 +835,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F24">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -855,19 +855,19 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F25">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -875,19 +875,19 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F26">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -895,19 +895,19 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F27">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -915,19 +915,19 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F28">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -935,19 +935,19 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F29">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -955,19 +955,19 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F30">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -975,19 +975,19 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F31">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -995,19 +995,19 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F32">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1015,19 +1015,19 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F33">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1035,19 +1035,19 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F34">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1055,19 +1055,19 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F35">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1075,19 +1075,19 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F36">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1095,19 +1095,19 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F37">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1115,19 +1115,19 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F38">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1135,19 +1135,19 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F39">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1155,19 +1155,19 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F40">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1175,19 +1175,19 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F41">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1195,19 +1195,19 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F42">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1215,19 +1215,19 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F43">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1235,19 +1235,19 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F44">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1255,19 +1255,19 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F45">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1275,19 +1275,19 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F46">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1295,19 +1295,19 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F47">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1315,19 +1315,19 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F48">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1335,19 +1335,19 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F49">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1355,19 +1355,19 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F50">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1375,19 +1375,19 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F51">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1395,19 +1395,19 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F52">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1415,19 +1415,19 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F53">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1435,19 +1435,19 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F54">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1455,19 +1455,19 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F55">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1475,19 +1475,19 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F56">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1495,19 +1495,19 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F57">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1515,19 +1515,19 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F58">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1535,19 +1535,19 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F59">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1555,19 +1555,19 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F60">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1575,19 +1575,19 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F61">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1595,19 +1595,19 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F62">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1615,19 +1615,19 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F63">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1635,19 +1635,19 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F64">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1655,19 +1655,19 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F65">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1675,19 +1675,19 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F66">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1695,19 +1695,19 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F67">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1715,19 +1715,19 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F68">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1735,19 +1735,19 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F69">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1755,19 +1755,19 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F70">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1775,19 +1775,19 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F71">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1795,19 +1795,19 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F72">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1815,19 +1815,19 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F73">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1835,19 +1835,19 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F74">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1855,19 +1855,19 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F75">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1875,19 +1875,19 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F76">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1895,19 +1895,19 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F77">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1915,19 +1915,19 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F78">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1935,19 +1935,19 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F79">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1955,19 +1955,19 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F80">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1975,19 +1975,19 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F81">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1995,19 +1995,19 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F82">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2015,19 +2015,19 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F83">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2035,19 +2035,19 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F84">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2055,19 +2055,19 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F85">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2075,19 +2075,19 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F86">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2095,19 +2095,19 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F87">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2115,19 +2115,19 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F88">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2135,19 +2135,19 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F89">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2155,19 +2155,19 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F90">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2175,19 +2175,19 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F91">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2195,19 +2195,19 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F92">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2215,19 +2215,19 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F93">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2235,19 +2235,19 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F94">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2255,19 +2255,19 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F95">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2275,19 +2275,19 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F96">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2295,19 +2295,19 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F97">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2315,19 +2315,19 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F98">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2335,19 +2335,19 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F99">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2355,19 +2355,19 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F100">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2375,19 +2375,19 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F101">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2395,19 +2395,19 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F102">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2415,19 +2415,19 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F103">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2435,19 +2435,19 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F104">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2455,19 +2455,19 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F105">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2475,19 +2475,19 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F106">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2495,19 +2495,19 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F107">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2515,19 +2515,19 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F108">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2535,19 +2535,19 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F109">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2555,19 +2555,19 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F110">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2575,19 +2575,19 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F111">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2595,19 +2595,19 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F112">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2615,19 +2615,19 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F113">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2635,19 +2635,19 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F114">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2655,19 +2655,19 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F115">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2675,19 +2675,19 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F116">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2695,19 +2695,19 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F117">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2715,19 +2715,19 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F118">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2735,19 +2735,19 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F119">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2755,19 +2755,19 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F120">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2775,19 +2775,19 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F121">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2795,19 +2795,19 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F122">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2815,19 +2815,19 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F123">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2835,19 +2835,19 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F124">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2855,19 +2855,19 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F125">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2875,19 +2875,19 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F126">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2895,19 +2895,19 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F127">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2915,19 +2915,19 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F128">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2935,19 +2935,19 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F129">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2955,19 +2955,19 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F130">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2975,19 +2975,19 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F131">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2995,19 +2995,19 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F132">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3015,19 +3015,19 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F133">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3035,19 +3035,19 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F134">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3055,19 +3055,19 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F135">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3075,19 +3075,19 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F136">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3095,19 +3095,19 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F137">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3115,19 +3115,19 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F138">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3135,19 +3135,19 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F139">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3155,19 +3155,19 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F140">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3175,19 +3175,19 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F141">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3195,19 +3195,19 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F142">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3215,19 +3215,19 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F143">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3235,19 +3235,19 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F144">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3255,19 +3255,19 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F145">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3275,19 +3275,19 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F146">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3295,19 +3295,19 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F147">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3315,19 +3315,19 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F148">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3335,19 +3335,19 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F149">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3355,19 +3355,19 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F150">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3375,19 +3375,19 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F151">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3395,19 +3395,19 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F152">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3415,19 +3415,19 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F153">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3435,19 +3435,19 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F154">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3455,19 +3455,19 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F155">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3475,19 +3475,19 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F156">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3495,19 +3495,19 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F157">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3515,19 +3515,19 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F158">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3535,19 +3535,19 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F159">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3555,19 +3555,19 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F160">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3575,19 +3575,19 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F161">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3595,19 +3595,19 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F162">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3615,19 +3615,19 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="C163">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D163">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E163">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F163">
-        <v>0.8999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -3694,19 +3694,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2592.000000000012</v>
+        <v>2000.000000000007</v>
       </c>
       <c r="D3">
-        <v>2591.999999999998</v>
+        <v>2000.00000000002</v>
       </c>
       <c r="E3">
-        <v>2591.999999999996</v>
+        <v>1999.999999999993</v>
       </c>
       <c r="F3">
-        <v>2592.000000000015</v>
+        <v>1999.999999999997</v>
       </c>
       <c r="G3">
-        <v>2592.000000000021</v>
+        <v>2000.000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5184.000000000025</v>
+        <v>4000.000000000015</v>
       </c>
       <c r="D4">
-        <v>5183.999999999993</v>
+        <v>4000.000000000041</v>
       </c>
       <c r="E4">
-        <v>5183.999999999989</v>
+        <v>3999.999999999986</v>
       </c>
       <c r="F4">
-        <v>5184.000000000028</v>
+        <v>3999.999999999994</v>
       </c>
       <c r="G4">
-        <v>5184.00000000004</v>
+        <v>4000.000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3740,19 +3740,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7776.000000000017</v>
+        <v>6000.000000000023</v>
       </c>
       <c r="D5">
-        <v>7775.999999999939</v>
+        <v>6000.000000000058</v>
       </c>
       <c r="E5">
-        <v>7775.999999999944</v>
+        <v>5999.999999999976</v>
       </c>
       <c r="F5">
-        <v>7776.000000000005</v>
+        <v>5999.999999999991</v>
       </c>
       <c r="G5">
-        <v>7776.000000000029</v>
+        <v>6000.000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -3763,19 +3763,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>10367.9999999998</v>
+        <v>8000.000000000029</v>
       </c>
       <c r="D6">
-        <v>10367.99999999943</v>
+        <v>8000.000000000082</v>
       </c>
       <c r="E6">
-        <v>10367.9999999995</v>
+        <v>7999.999999999973</v>
       </c>
       <c r="F6">
-        <v>10367.99999999964</v>
+        <v>7999.999999999988</v>
       </c>
       <c r="G6">
-        <v>10367.99999999972</v>
+        <v>8000.000000000012</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -3786,19 +3786,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>12959.99999999742</v>
+        <v>10000.00000000003</v>
       </c>
       <c r="D7">
-        <v>12959.99999999555</v>
+        <v>10000.0000000001</v>
       </c>
       <c r="E7">
-        <v>12959.9999999961</v>
+        <v>9999.999999999955</v>
       </c>
       <c r="F7">
-        <v>12959.99999999668</v>
+        <v>9999.999999999982</v>
       </c>
       <c r="G7">
-        <v>12959.99999999713</v>
+        <v>10000.00000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -3809,19 +3809,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>15551.99999997824</v>
+        <v>12000.00000000004</v>
       </c>
       <c r="D8">
-        <v>15551.99999997172</v>
+        <v>12000.00000000011</v>
       </c>
       <c r="E8">
-        <v>15551.99999997513</v>
+        <v>11999.99999999995</v>
       </c>
       <c r="F8">
-        <v>15551.9999999783</v>
+        <v>11999.99999999998</v>
       </c>
       <c r="G8">
-        <v>15551.99999998098</v>
+        <v>12000.00000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -3832,19 +3832,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>18143.99999984873</v>
+        <v>14000.00000000003</v>
       </c>
       <c r="D9">
-        <v>18143.99999984985</v>
+        <v>14000.00000000008</v>
       </c>
       <c r="E9">
-        <v>18143.99999986735</v>
+        <v>13999.99999999991</v>
       </c>
       <c r="F9">
-        <v>18143.99999988328</v>
+        <v>13999.99999999995</v>
       </c>
       <c r="G9">
-        <v>18143.99999989701</v>
+        <v>14000.00000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -3855,19 +3855,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>20735.9999990993</v>
+        <v>15999.99999999985</v>
       </c>
       <c r="D10">
-        <v>20735.99999931468</v>
+        <v>15999.99999999982</v>
       </c>
       <c r="E10">
-        <v>20735.99999939167</v>
+        <v>15999.99999999973</v>
       </c>
       <c r="F10">
-        <v>20735.99999946176</v>
+        <v>15999.99999999983</v>
       </c>
       <c r="G10">
-        <v>20735.99999952264</v>
+        <v>15999.99999999993</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -3878,19 +3878,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>23327.99999530192</v>
+        <v>17999.99999999875</v>
       </c>
       <c r="D11">
-        <v>23327.99999725486</v>
+        <v>17999.9999999984</v>
       </c>
       <c r="E11">
-        <v>23327.99999755191</v>
+        <v>17999.99999999883</v>
       </c>
       <c r="F11">
-        <v>23327.99999782328</v>
+        <v>17999.99999999923</v>
       </c>
       <c r="G11">
-        <v>23327.99999806031</v>
+        <v>17999.99999999951</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3901,19 +3901,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>25919.99997818381</v>
+        <v>19999.99999999253</v>
       </c>
       <c r="D12">
-        <v>25919.99999019581</v>
+        <v>19999.99999999198</v>
       </c>
       <c r="E12">
-        <v>25919.9999912163</v>
+        <v>19999.99999999478</v>
       </c>
       <c r="F12">
-        <v>25919.99999215262</v>
+        <v>19999.99999999645</v>
       </c>
       <c r="G12">
-        <v>25919.9999929748</v>
+        <v>19999.99999999749</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -3924,19 +3924,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>28511.99990867072</v>
+        <v>21999.99999996144</v>
       </c>
       <c r="D13">
-        <v>28511.99996838383</v>
+        <v>21999.99999996617</v>
       </c>
       <c r="E13">
-        <v>28511.9999715446</v>
+        <v>21999.99999997834</v>
       </c>
       <c r="F13">
-        <v>28511.99997445851</v>
+        <v>21999.99999998502</v>
       </c>
       <c r="G13">
-        <v>28511.99997702998</v>
+        <v>21999.99999998913</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -3947,19 +3947,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>31103.9996518049</v>
+        <v>23999.99999981965</v>
       </c>
       <c r="D14">
-        <v>31103.99990699326</v>
+        <v>23999.99999987168</v>
       </c>
       <c r="E14">
-        <v>31103.99991591046</v>
+        <v>23999.99999991733</v>
       </c>
       <c r="F14">
-        <v>31103.999924171</v>
+        <v>23999.99999994213</v>
       </c>
       <c r="G14">
-        <v>31103.99993149636</v>
+        <v>23999.99999995744</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -3970,19 +3970,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>33695.9987808357</v>
+        <v>25999.99999922674</v>
       </c>
       <c r="D15">
-        <v>33695.99974827097</v>
+        <v>25999.99999955463</v>
       </c>
       <c r="E15">
-        <v>33695.9997713804</v>
+        <v>25999.99999970957</v>
       </c>
       <c r="F15">
-        <v>33695.99979289145</v>
+        <v>25999.99999979434</v>
       </c>
       <c r="G15">
-        <v>33695.99981205969</v>
+        <v>25999.99999984727</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -3993,19 +3993,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>36287.99605180193</v>
+        <v>27999.99999693674</v>
       </c>
       <c r="D16">
-        <v>36287.9993686024</v>
+        <v>27999.99999857131</v>
       </c>
       <c r="E16">
-        <v>36287.99942401076</v>
+        <v>27999.99999905586</v>
       </c>
       <c r="F16">
-        <v>36287.99947583461</v>
+        <v>27999.99999932388</v>
       </c>
       <c r="G16">
-        <v>36287.99952223636</v>
+        <v>27999.99999949299</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4016,19 +4016,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>38879.98810246796</v>
+        <v>29999.99998871866</v>
       </c>
       <c r="D17">
-        <v>38879.99852320433</v>
+        <v>29999.99999573642</v>
       </c>
       <c r="E17">
-        <v>38879.99864686847</v>
+        <v>29999.99999714362</v>
       </c>
       <c r="F17">
-        <v>38879.99876308512</v>
+        <v>29999.99999793185</v>
       </c>
       <c r="G17">
-        <v>38879.99886763895</v>
+        <v>29999.99999843437</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4039,19 +4039,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>41471.96646428537</v>
+        <v>31999.99996117354</v>
       </c>
       <c r="D18">
-        <v>41471.99676154814</v>
+        <v>31999.99998809869</v>
       </c>
       <c r="E18">
-        <v>41471.9970198384</v>
+        <v>31999.99999191651</v>
       </c>
       <c r="F18">
-        <v>41471.99726372401</v>
+        <v>31999.99999408274</v>
       </c>
       <c r="G18">
-        <v>41471.99748417306</v>
+        <v>31999.99999547856</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4062,19 +4062,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>44063.91117419906</v>
+        <v>33999.9998745555</v>
       </c>
       <c r="D19">
-        <v>44063.99330994453</v>
+        <v>33999.99996878149</v>
       </c>
       <c r="E19">
-        <v>44063.99381717302</v>
+        <v>33999.99997850388</v>
       </c>
       <c r="F19">
-        <v>44063.99429836315</v>
+        <v>33999.99998409256</v>
       </c>
       <c r="G19">
-        <v>44063.99473535201</v>
+        <v>33999.99998773207</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4085,19 +4085,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>46655.77802249603</v>
+        <v>35999.99961800277</v>
       </c>
       <c r="D20">
-        <v>46655.98692474973</v>
+        <v>35999.99992273297</v>
       </c>
       <c r="E20">
-        <v>46655.98786521554</v>
+        <v>35999.99994606752</v>
       </c>
       <c r="F20">
-        <v>46655.98876154958</v>
+        <v>35999.99995965639</v>
       </c>
       <c r="G20">
-        <v>46655.98957932543</v>
+        <v>35999.99996860002</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4108,19 +4108,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>49247.47472797844</v>
+        <v>37999.99889975792</v>
       </c>
       <c r="D21">
-        <v>49247.97573002722</v>
+        <v>37999.99981890239</v>
       </c>
       <c r="E21">
-        <v>49247.97738258749</v>
+        <v>37999.99987187514</v>
       </c>
       <c r="F21">
-        <v>49247.97896483407</v>
+        <v>37999.99990312592</v>
       </c>
       <c r="G21">
-        <v>49247.9804150274</v>
+        <v>37999.99992391186</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4131,19 +4131,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>51838.81920640512</v>
+        <v>39999.99699317062</v>
       </c>
       <c r="D22">
-        <v>51839.95706524251</v>
+        <v>39999.9995967446</v>
       </c>
       <c r="E22">
-        <v>51839.95982664446</v>
+        <v>39999.99971085414</v>
       </c>
       <c r="F22">
-        <v>51839.96248253137</v>
+        <v>39999.99977904531</v>
       </c>
       <c r="G22">
-        <v>51839.96492777585</v>
+        <v>39999.99982487991</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -4154,19 +4154,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>54429.47096851502</v>
+        <v>41999.99218085934</v>
       </c>
       <c r="D23">
-        <v>54431.92737822166</v>
+        <v>41999.99914438965</v>
       </c>
       <c r="E23">
-        <v>54431.93177993705</v>
+        <v>41999.99937830708</v>
       </c>
       <c r="F23">
-        <v>54431.93603234076</v>
+        <v>41999.99951989795</v>
       </c>
       <c r="G23">
-        <v>54431.93996492975</v>
+        <v>41999.99961606642</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -4177,19 +4177,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>57018.82525614789</v>
+        <v>43999.98060183377</v>
       </c>
       <c r="D24">
-        <v>57023.88220210272</v>
+        <v>43999.99826552778</v>
       </c>
       <c r="E24">
-        <v>57023.88891480631</v>
+        <v>43999.99872305319</v>
       </c>
       <c r="F24">
-        <v>57023.8954282067</v>
+        <v>43999.99900354436</v>
       </c>
       <c r="G24">
-        <v>57023.90147812987</v>
+        <v>43999.99919604047</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -4200,19 +4200,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>59605.85980627999</v>
+        <v>45999.95398107347</v>
       </c>
       <c r="D25">
-        <v>59615.81624913366</v>
+        <v>45999.99663235786</v>
       </c>
       <c r="E25">
-        <v>59615.82606976473</v>
+        <v>45999.99748826034</v>
       </c>
       <c r="F25">
-        <v>59615.83563966294</v>
+        <v>45999.99801965916</v>
       </c>
       <c r="G25">
-        <v>59615.8445667522</v>
+        <v>45999.99838812649</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -4223,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>62188.92725129676</v>
+        <v>47999.89537778018</v>
       </c>
       <c r="D26">
-        <v>62207.72363805275</v>
+        <v>47999.9937231421</v>
       </c>
       <c r="E26">
-        <v>62207.73745676133</v>
+        <v>47999.99525794272</v>
       </c>
       <c r="F26">
-        <v>62207.75097890887</v>
+        <v>47999.99622287715</v>
       </c>
       <c r="G26">
-        <v>62207.76364569551</v>
+        <v>47999.99689883448</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -4246,19 +4246,19 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>64765.49302265472</v>
+        <v>49999.77160498796</v>
       </c>
       <c r="D27">
-        <v>64799.59824775389</v>
+        <v>49999.9887452128</v>
       </c>
       <c r="E27">
-        <v>64799.61699566413</v>
+        <v>49999.99138877948</v>
       </c>
       <c r="F27">
-        <v>64799.63541540419</v>
+        <v>49999.99307160322</v>
       </c>
       <c r="G27">
-        <v>64799.65274047456</v>
+        <v>49999.994262482</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -4269,19 +4269,19 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>67331.82944823743</v>
+        <v>51999.52035070294</v>
       </c>
       <c r="D28">
-        <v>67391.43416325541</v>
+        <v>51999.9805476554</v>
       </c>
       <c r="E28">
-        <v>67391.45874616102</v>
+        <v>51999.98492964298</v>
       </c>
       <c r="F28">
-        <v>67391.48299221846</v>
+        <v>51999.98775368</v>
       </c>
       <c r="G28">
-        <v>67391.50588771519</v>
+        <v>51999.98977235942</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -4292,19 +4292,19 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>69882.69064028194</v>
+        <v>53999.02931442823</v>
       </c>
       <c r="D29">
-        <v>69983.2261573982</v>
+        <v>53999.96753197685</v>
       </c>
       <c r="E29">
-        <v>69983.2573843376</v>
+        <v>53999.97453483217</v>
       </c>
       <c r="F29">
-        <v>69983.28829501192</v>
+        <v>53999.97910327691</v>
       </c>
       <c r="G29">
-        <v>69983.31759552447</v>
+        <v>53999.98240157659</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -4315,19 +4315,19 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>72411.00756382391</v>
+        <v>55998.10397242039</v>
       </c>
       <c r="D30">
-        <v>72574.97013924523</v>
+        <v>55999.94757310419</v>
       </c>
       <c r="E30">
-        <v>72575.00865769666</v>
+        <v>55999.95838094772</v>
       </c>
       <c r="F30">
-        <v>72575.04690963092</v>
+        <v>55999.96551709155</v>
       </c>
       <c r="G30">
-        <v>72575.08330209595</v>
+        <v>55999.97072019328</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -4338,19 +4338,19 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>74907.65501574408</v>
+        <v>57996.42008724945</v>
       </c>
       <c r="D31">
-        <v>75166.6635011413</v>
+        <v>57999.91796602428</v>
       </c>
       <c r="E31">
-        <v>75166.70975226465</v>
+        <v>57999.93410078246</v>
       </c>
       <c r="F31">
-        <v>75166.75580214619</v>
+        <v>57999.94488153782</v>
       </c>
       <c r="G31">
-        <v>75166.79976685732</v>
+        <v>57999.95281882591</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4361,19 +4361,19 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>77361.34827899348</v>
+        <v>59993.45704149789</v>
       </c>
       <c r="D32">
-        <v>77758.30531010785</v>
+        <v>59999.87541418477</v>
       </c>
       <c r="E32">
-        <v>77758.35951901859</v>
+        <v>59999.89874950967</v>
       </c>
       <c r="F32">
-        <v>77758.41356661789</v>
+        <v>59999.91452512952</v>
       </c>
       <c r="G32">
-        <v>77758.46533785474</v>
+        <v>59999.92625181578</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -4384,19 +4384,19 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>79758.72357558444</v>
+        <v>61988.40880120237</v>
       </c>
       <c r="D33">
-        <v>80349.89631098724</v>
+        <v>61999.81607360542</v>
       </c>
       <c r="E33">
-        <v>80349.95853081434</v>
+        <v>61999.84881791729</v>
       </c>
       <c r="F33">
-        <v>80350.02050816554</v>
+        <v>61999.87121079712</v>
       </c>
       <c r="G33">
-        <v>80350.08005967588</v>
+        <v>61999.88801431678</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -4407,19 +4407,19 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>82084.64134663377</v>
+        <v>63980.07107785474</v>
       </c>
       <c r="D34">
-        <v>82941.43873091352</v>
+        <v>63999.73566121832</v>
       </c>
       <c r="E34">
-        <v>82941.50896944178</v>
+        <v>63999.78030389135</v>
       </c>
       <c r="F34">
-        <v>82941.57855659873</v>
+        <v>63999.81118071049</v>
       </c>
       <c r="G34">
-        <v>82941.64561300837</v>
+        <v>63999.83456654964</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -4430,19 +4430,19 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>84322.72551521278</v>
+        <v>65966.70622073466</v>
       </c>
       <c r="D35">
-        <v>85532.93588852622</v>
+        <v>65999.62962776206</v>
       </c>
       <c r="E35">
-        <v>85533.01436880472</v>
+        <v>65999.68884688402</v>
       </c>
       <c r="F35">
-        <v>85533.09103247894</v>
+        <v>65999.73026111434</v>
       </c>
       <c r="G35">
-        <v>85533.16510363705</v>
+        <v>65999.761914574</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -4453,19 +4453,19 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>86456.11865770353</v>
+        <v>67945.89148375367</v>
       </c>
       <c r="D36">
-        <v>88124.39160849305</v>
+        <v>67999.49338582763</v>
       </c>
       <c r="E36">
-        <v>88124.47925910988</v>
+        <v>67999.56992148934</v>
       </c>
       <c r="F36">
-        <v>88124.56230748232</v>
+        <v>67999.62402718159</v>
       </c>
       <c r="G36">
-        <v>88124.64273962946</v>
+        <v>67999.66575046732</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -4476,19 +4476,19 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>88468.39810909143</v>
+        <v>69914.36123002713</v>
       </c>
       <c r="D37">
-        <v>90715.80941545569</v>
+        <v>69999.32257418626</v>
       </c>
       <c r="E37">
-        <v>90715.90876541747</v>
+        <v>69999.41907693008</v>
       </c>
       <c r="F37">
-        <v>90715.99741098238</v>
+        <v>69999.48801906315</v>
       </c>
       <c r="G37">
-        <v>90716.08344699627</v>
+        <v>69999.54164660486</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -4499,19 +4499,19 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>90344.56823041376</v>
+        <v>71867.85869968809</v>
       </c>
       <c r="D38">
-        <v>93307.19142608352</v>
+        <v>71999.11333222977</v>
       </c>
       <c r="E38">
-        <v>93307.30821182155</v>
+        <v>71999.23220100081</v>
       </c>
       <c r="F38">
-        <v>93307.40163433955</v>
+        <v>71999.31799174224</v>
       </c>
       <c r="G38">
-        <v>93307.49247527511</v>
+        <v>71999.38529018892</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -4522,19 +4522,19 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>92072.02563884863</v>
+        <v>73801.01723902891</v>
       </c>
       <c r="D39">
-        <v>95898.53676938877</v>
+        <v>73998.86255482299</v>
       </c>
       <c r="E39">
-        <v>95898.68277218586</v>
+        <v>73999.00578152211</v>
       </c>
       <c r="F39">
-        <v>95898.78017534513</v>
+        <v>73999.11017467745</v>
       </c>
       <c r="G39">
-        <v>95898.87503678048</v>
+        <v>73999.19273688999</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -4545,19 +4545,19 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>93641.39134605907</v>
+        <v>75707.29330950284</v>
       </c>
       <c r="D40">
-        <v>98489.83924050204</v>
+        <v>75998.56809895343</v>
       </c>
       <c r="E40">
-        <v>98490.0371933618</v>
+        <v>75998.73713687007</v>
       </c>
       <c r="F40">
-        <v>98490.13785103435</v>
+        <v>75998.86151395502</v>
       </c>
       <c r="G40">
-        <v>98490.23600985541</v>
+        <v>75998.9606579367</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -4568,19 +4568,19 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>95047.11754077741</v>
+        <v>77578.9731861163</v>
       </c>
       <c r="D41">
-        <v>101081.0837295062</v>
+        <v>77998.22891915747</v>
       </c>
       <c r="E41">
-        <v>101081.3756010198</v>
+        <v>77998.42459008335</v>
       </c>
       <c r="F41">
-        <v>101081.4788914375</v>
+        <v>77998.56987054223</v>
       </c>
       <c r="G41">
-        <v>101081.5797210602</v>
+        <v>77998.68655422749</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -4591,19 +4591,19 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>96287.80485438292</v>
+        <v>79407.27137118076</v>
       </c>
       <c r="D42">
-        <v>103672.2407647957</v>
+        <v>79997.84511776584</v>
       </c>
       <c r="E42">
-        <v>103672.7013847338</v>
+        <v>79998.06756794646</v>
       </c>
       <c r="F42">
-        <v>103672.8068130073</v>
+        <v>79998.23415318932</v>
       </c>
       <c r="G42">
-        <v>103672.9098071427</v>
+        <v>79998.36891431785</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -4614,19 +4614,19 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>97366.20320692094</v>
+        <v>81182.53129747037</v>
       </c>
       <c r="D43">
-        <v>106263.2582747987</v>
+        <v>81997.41790679464</v>
       </c>
       <c r="E43">
-        <v>106264.0171496599</v>
+        <v>81997.66661604994</v>
       </c>
       <c r="F43">
-        <v>106264.1243605043</v>
+        <v>81997.85437269889</v>
       </c>
       <c r="G43">
-        <v>106264.2291470821</v>
+        <v>81998.00729991126</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -4637,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>98288.90901224551</v>
+        <v>82894.5284589355</v>
       </c>
       <c r="D44">
-        <v>108854.0494161361</v>
+        <v>83996.9494887795</v>
       </c>
       <c r="E44">
-        <v>108855.3247175956</v>
+        <v>83997.22333139295</v>
       </c>
       <c r="F44">
-        <v>108855.4335008068</v>
+        <v>83997.43161419162</v>
       </c>
       <c r="G44">
-        <v>108855.5398484571</v>
+        <v>83997.60235156327</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -4660,19 +4660,19 @@
         <v>0</v>
       </c>
       <c r="C45">
-        <v>99065.80685740433</v>
+        <v>84532.8639360802</v>
       </c>
       <c r="D45">
-        <v>111444.4750658307</v>
+        <v>85996.44287210589</v>
       </c>
       <c r="E45">
-        <v>111446.625159895</v>
+        <v>85996.7402238036</v>
       </c>
       <c r="F45">
-        <v>111446.7354511148</v>
+        <v>85996.96793391209</v>
       </c>
       <c r="G45">
-        <v>111446.8432707013</v>
+        <v>85997.15571707318</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -4683,19 +4683,19 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>99709.32938103416</v>
+        <v>86087.42412000116</v>
       </c>
       <c r="D46">
-        <v>114034.3193703044</v>
+        <v>87995.90164096889</v>
       </c>
       <c r="E46">
-        <v>114037.9188474824</v>
+        <v>87996.22052479228</v>
       </c>
       <c r="F46">
-        <v>114038.0307262811</v>
+        <v>87996.46619542054</v>
       </c>
       <c r="G46">
-        <v>114038.1400695421</v>
+        <v>87996.66991386954</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -4706,19 +4706,19 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>100233.6219157442</v>
+        <v>87548.87221986693</v>
       </c>
       <c r="D47">
-        <v>116623.2566404278</v>
+        <v>89995.32970020051</v>
       </c>
       <c r="E47">
-        <v>116629.2055076591</v>
+        <v>89995.66796649435</v>
       </c>
       <c r="F47">
-        <v>116629.3191941944</v>
+        <v>89995.92986552783</v>
       </c>
       <c r="G47">
-        <v>116629.4302507966</v>
+        <v>89996.14814325601</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -4729,19 +4729,19 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>100653.6981408085</v>
+        <v>88909.13062154161</v>
       </c>
       <c r="D48">
-        <v>119210.8079483017</v>
+        <v>91994.73101059435</v>
       </c>
       <c r="E48">
-        <v>119220.4842822387</v>
+        <v>91995.08655387315</v>
       </c>
       <c r="F48">
-        <v>119220.6001329539</v>
+        <v>91995.36279250744</v>
       </c>
       <c r="G48">
-        <v>119220.7132264194</v>
+        <v>91995.59407788191</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -4752,19 +4752,19 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>100984.6614694883</v>
+        <v>90161.81157559196</v>
       </c>
       <c r="D49">
-        <v>121796.2860916863</v>
+        <v>93994.10932122156</v>
       </c>
       <c r="E49">
-        <v>121811.753785766</v>
+        <v>93994.48035075024</v>
       </c>
       <c r="F49">
-        <v>121811.8722879862</v>
+        <v>93994.7689880496</v>
       </c>
       <c r="G49">
-        <v>121811.9878701913</v>
+        <v>93995.01164407864</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -4775,19 +4775,19 @@
         <v>0</v>
       </c>
       <c r="C50">
-        <v>101241.0477134752</v>
+        <v>91302.55746736833</v>
       </c>
       <c r="D50">
-        <v>124378.728213478</v>
+        <v>95993.46789185431</v>
       </c>
       <c r="E50">
-        <v>124403.0121655321</v>
+        <v>95993.85329539496</v>
       </c>
       <c r="F50">
-        <v>124403.1339305769</v>
+        <v>95994.15243076347</v>
       </c>
       <c r="G50">
-        <v>124403.25257398</v>
+        <v>95994.40481815978</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -4798,19 +4798,19 @@
         <v>0</v>
       </c>
       <c r="C51">
-        <v>101436.3219055993</v>
+        <v>92329.26061079247</v>
       </c>
       <c r="D51">
-        <v>126956.816341585</v>
+        <v>97992.80918107112</v>
       </c>
       <c r="E51">
-        <v>126994.2571664814</v>
+        <v>97993.20905542788</v>
       </c>
       <c r="F51">
-        <v>126994.3829211974</v>
+        <v>97993.51690372262</v>
       </c>
       <c r="G51">
-        <v>126994.5053077023</v>
+        <v>97993.77745123644</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -4821,19 +4821,19 @@
         <v>0</v>
       </c>
       <c r="C52">
-        <v>101582.5399448864</v>
+        <v>93242.14485998327</v>
       </c>
       <c r="D52">
-        <v>129528.7874543722</v>
+        <v>99992.13445357948</v>
       </c>
       <c r="E52">
-        <v>129585.4862038699</v>
+        <v>99992.55092574934</v>
       </c>
       <c r="F52">
-        <v>129585.6167814643</v>
+        <v>99992.86587267148</v>
       </c>
       <c r="G52">
-        <v>129585.7436868791</v>
+        <v>99993.13313154558</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -4844,19 +4844,19 @@
         <v>0</v>
       </c>
       <c r="C53">
-        <v>101690.1669708354</v>
+        <v>94043.70553924771</v>
       </c>
       <c r="D53">
-        <v>132092.3363280367</v>
+        <v>101991.4432328842</v>
       </c>
       <c r="E53">
-        <v>132176.6964448198</v>
+        <v>101991.8817679468</v>
       </c>
       <c r="F53">
-        <v>132176.8327777654</v>
+        <v>101992.2024059724</v>
       </c>
       <c r="G53">
-        <v>132176.9650511516</v>
+        <v>101992.4750876924</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -4867,19 +4867,19 @@
         <v>0</v>
       </c>
       <c r="C54">
-        <v>101768.030859526</v>
+        <v>94738.51822615159</v>
       </c>
       <c r="D54">
-        <v>134644.5162676656</v>
+        <v>103990.7324913395</v>
       </c>
       <c r="E54">
-        <v>134767.8848969042</v>
+        <v>103991.2039857199</v>
       </c>
       <c r="F54">
-        <v>134768.0280178476</v>
+        <v>103991.5291328796</v>
       </c>
       <c r="G54">
-        <v>134768.1665556002</v>
+        <v>103991.8061313465</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -4890,19 +4890,19 @@
         <v>0</v>
       </c>
       <c r="C55">
-        <v>101823.3815049448</v>
+        <v>95332.93890540992</v>
       </c>
       <c r="D55">
-        <v>137181.6446781702</v>
+        <v>105989.9954273359</v>
       </c>
       <c r="E55">
-        <v>137359.048497804</v>
+        <v>105990.5195284888</v>
       </c>
       <c r="F55">
-        <v>137359.1995593884</v>
+        <v>105990.8482336364</v>
       </c>
       <c r="G55">
-        <v>137359.3452745618</v>
+        <v>105991.1286342904</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -4913,19 +4913,19 @@
         <v>0</v>
       </c>
       <c r="C56">
-        <v>101862.0241338691</v>
+        <v>95834.72651905695</v>
       </c>
       <c r="D56">
-        <v>139699.2220527594</v>
+        <v>107989.2196276363</v>
       </c>
       <c r="E56">
-        <v>139950.1841949787</v>
+        <v>107989.8299144676</v>
       </c>
       <c r="F56">
-        <v>139950.3445271982</v>
+        <v>107990.1614532741</v>
       </c>
       <c r="G56">
-        <v>139950.4983152801</v>
+        <v>107990.4445325011</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -4936,19 +4936,19 @@
         <v>0</v>
       </c>
       <c r="C57">
-        <v>101888.4966714969</v>
+        <v>96252.62319589347</v>
       </c>
       <c r="D57">
-        <v>142191.8740709844</v>
+        <v>109988.384351221</v>
       </c>
       <c r="E57">
-        <v>142541.2889981074</v>
+        <v>109989.1362648161</v>
       </c>
       <c r="F57">
-        <v>142541.4602336009</v>
+        <v>109989.4701306942</v>
       </c>
       <c r="G57">
-        <v>142541.6229365524</v>
+        <v>109989.7553490794</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -4959,19 +4959,19 @@
         <v>0</v>
       </c>
       <c r="C58">
-        <v>101906.2657108535</v>
+        <v>96595.92737979614</v>
       </c>
       <c r="D58">
-        <v>144653.3268361847</v>
+        <v>111987.4566005208</v>
       </c>
       <c r="E58">
-        <v>145132.3599794628</v>
+        <v>111988.4393416798</v>
       </c>
       <c r="F58">
-        <v>145132.5442950444</v>
+        <v>111988.7752353299</v>
       </c>
       <c r="G58">
-        <v>145132.7166658597</v>
+        <v>111989.0622280993</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -4982,19 +4982,19 @@
         <v>0</v>
       </c>
       <c r="C59">
-        <v>101917.9215513834</v>
+        <v>96874.09124756121</v>
       </c>
       <c r="D59">
-        <v>147076.4246230588</v>
+        <v>113986.385569858</v>
       </c>
       <c r="E59">
-        <v>147723.3941877513</v>
+        <v>113987.7395846166</v>
       </c>
       <c r="F59">
-        <v>147723.5947373219</v>
+        <v>113988.0774050649</v>
       </c>
       <c r="G59">
-        <v>147723.7774075667</v>
+        <v>113988.3659725097</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5005,19 +5005,19 @@
         <v>0</v>
       </c>
       <c r="C60">
-        <v>101925.3589083033</v>
+        <v>97096.36721761936</v>
       </c>
       <c r="D60">
-        <v>149453.1977238056</v>
+        <v>115985.0949854653</v>
       </c>
       <c r="E60">
-        <v>150314.3884283573</v>
+        <v>115987.0371417696</v>
       </c>
       <c r="F60">
-        <v>150314.6100820072</v>
+        <v>115987.3769807924</v>
       </c>
       <c r="G60">
-        <v>150314.8035347339</v>
+        <v>115987.6670807369</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5028,19 +5028,19 @@
         <v>0</v>
       </c>
       <c r="C61">
-        <v>101929.9354416665</v>
+        <v>97271.52022937266</v>
       </c>
       <c r="D61">
-        <v>151774.9850809174</v>
+        <v>117983.4727860418</v>
       </c>
       <c r="E61">
-        <v>152905.3388461543</v>
+        <v>117986.3318939409</v>
       </c>
       <c r="F61">
-        <v>152905.5894078238</v>
+        <v>117986.6740347653</v>
       </c>
       <c r="G61">
-        <v>152905.7939579365</v>
+        <v>117986.9657783315</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5051,19 +5051,19 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <v>101932.6047507701</v>
+        <v>97407.61404485848</v>
       </c>
       <c r="D62">
-        <v>154032.6125337687</v>
+        <v>119981.3575503338</v>
       </c>
       <c r="E62">
-        <v>155496.2402246941</v>
+        <v>119985.623471283</v>
       </c>
       <c r="F62">
-        <v>155496.5323824865</v>
+        <v>119985.9683915149</v>
       </c>
       <c r="G62">
-        <v>155496.748166082</v>
+        <v>119986.2620426478</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -5074,19 +5074,19 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <v>101934.023762806</v>
+        <v>97511.87212987486</v>
       </c>
       <c r="D63">
-        <v>156216.6229934676</v>
+        <v>121978.5210745298</v>
       </c>
       <c r="E63">
-        <v>158087.084886192</v>
+        <v>121984.9112635853</v>
       </c>
       <c r="F63">
-        <v>158087.4392628589</v>
+        <v>121985.2596414971</v>
       </c>
       <c r="G63">
-        <v>158087.6662363712</v>
+        <v>121985.555619994</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -5097,19 +5097,19 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <v>101934.6365687451</v>
+        <v>97590.60744815465</v>
       </c>
       <c r="D64">
-        <v>158317.5501300341</v>
+        <v>123974.6465550868</v>
       </c>
       <c r="E64">
-        <v>160677.861039114</v>
+        <v>123984.1944260492</v>
       </c>
       <c r="F64">
-        <v>160678.3108637619</v>
+        <v>123984.5471487012</v>
       </c>
       <c r="G64">
-        <v>160678.5488129745</v>
+        <v>123984.8460358834</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -5120,19 +5120,19 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <v>101934.7379083066</v>
+        <v>97649.21114157807</v>
       </c>
       <c r="D65">
-        <v>160326.2227178631</v>
+        <v>125969.3019597503</v>
       </c>
       <c r="E65">
-        <v>163268.5503736407</v>
+        <v>125983.4718830279</v>
       </c>
       <c r="F65">
-        <v>163269.1484981446</v>
+        <v>125983.8300542229</v>
       </c>
       <c r="G65">
-        <v>163269.3970563846</v>
+        <v>125984.1325999065</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -5143,19 +5143,19 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <v>101934.5199182214</v>
+        <v>97692.18763945531</v>
       </c>
       <c r="D66">
-        <v>162234.0831598673</v>
+        <v>127961.9083863428</v>
       </c>
       <c r="E66">
-        <v>165859.1246501257</v>
+        <v>127982.7423324732</v>
       </c>
       <c r="F66">
-        <v>165859.9538933422</v>
+        <v>127983.107278268</v>
       </c>
       <c r="G66">
-        <v>165860.212567534</v>
+        <v>127983.4144073572</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -5166,19 +5166,19 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <v>101934.1056725771</v>
+        <v>97723.22305095925</v>
       </c>
       <c r="D67">
-        <v>164033.5013556875</v>
+        <v>129951.7035251292</v>
       </c>
       <c r="E67">
-        <v>168449.5409635555</v>
+        <v>129982.0042538136</v>
       </c>
       <c r="F67">
-        <v>168450.7290896004</v>
+        <v>129982.3775232478</v>
       </c>
       <c r="G67">
-        <v>168450.9972923701</v>
+        <v>129982.6903400889</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -5189,19 +5189,19 @@
         <v>0</v>
       </c>
       <c r="C68">
-        <v>101933.5726666259</v>
+        <v>97745.27438991642</v>
       </c>
       <c r="D68">
-        <v>165718.0643236717</v>
+        <v>131937.7007571647</v>
       </c>
       <c r="E68">
-        <v>171039.7353014142</v>
+        <v>131981.2559217036</v>
       </c>
       <c r="F68">
-        <v>171041.4763278343</v>
+        <v>131981.6392805632</v>
       </c>
       <c r="G68">
-        <v>171041.7534135849</v>
+        <v>131981.9590691745</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -5212,19 +5212,19 @@
         <v>0</v>
       </c>
       <c r="C69">
-        <v>101932.9688840124</v>
+        <v>97760.66882812597</v>
       </c>
       <c r="D69">
-        <v>167282.8229790147</v>
+        <v>133918.6449269949</v>
       </c>
       <c r="E69">
-        <v>173629.6139489617</v>
+        <v>133980.4954275729</v>
       </c>
       <c r="F69">
-        <v>173632.1979337161</v>
+        <v>133980.890843392</v>
       </c>
       <c r="G69">
-        <v>173632.4832365245</v>
+        <v>133981.2190618218</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -5235,19 +5235,19 @@
         <v>0</v>
       </c>
       <c r="C70">
-        <v>101932.3235507346</v>
+        <v>97771.20434300619</v>
       </c>
       <c r="D70">
-        <v>168724.4801559238</v>
+        <v>135892.9663983401</v>
       </c>
       <c r="E70">
-        <v>176219.0422427792</v>
+        <v>135979.720710204</v>
       </c>
       <c r="F70">
-        <v>176222.8962047145</v>
+        <v>135980.1303273094</v>
       </c>
       <c r="G70">
-        <v>176223.1890760349</v>
+        <v>135980.4685946726</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -5258,19 +5258,19 @@
         <v>0</v>
       </c>
       <c r="C71">
-        <v>101931.6541831409</v>
+        <v>97778.24544755564</v>
       </c>
       <c r="D71">
-        <v>170041.5080844784</v>
+        <v>137858.7355959677</v>
       </c>
       <c r="E71">
-        <v>178807.8301409591</v>
+        <v>137978.9295957014</v>
       </c>
       <c r="F71">
-        <v>178813.5733057538</v>
+        <v>137979.3556999173</v>
       </c>
       <c r="G71">
-        <v>178813.8731502324</v>
+        <v>137979.7057751162</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -5281,19 +5281,19 @@
         <v>0</v>
       </c>
       <c r="C72">
-        <v>101930.9711147647</v>
+        <v>97782.80988533581</v>
       </c>
       <c r="D72">
-        <v>171234.1886715094</v>
+        <v>139813.6208021544</v>
       </c>
       <c r="E72">
-        <v>181395.7140788785</v>
+        <v>139978.1198462652</v>
       </c>
       <c r="F72">
-        <v>181404.2311779077</v>
+        <v>139978.5648198906</v>
       </c>
       <c r="G72">
-        <v>181404.5374860748</v>
+        <v>139978.9285715943</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -5304,19 +5304,19 @@
         <v>0</v>
       </c>
       <c r="C73">
-        <v>101930.2803478191</v>
+        <v>97785.64405938594</v>
       </c>
       <c r="D73">
-        <v>172304.5755586456</v>
+        <v>141754.8524479224</v>
       </c>
       <c r="E73">
-        <v>183982.3346266478</v>
+        <v>141977.2892161745</v>
       </c>
       <c r="F73">
-        <v>183994.8714631075</v>
+        <v>141977.7554849975</v>
       </c>
       <c r="G73">
-        <v>183995.1838403294</v>
+        <v>141978.1348531234</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -5327,19 +5327,19 @@
         <v>0</v>
       </c>
       <c r="C74">
-        <v>101929.5853159191</v>
+        <v>97787.28645170857</v>
       </c>
       <c r="D74">
-        <v>173256.3824705237</v>
+        <v>143679.1974489927</v>
       </c>
       <c r="E74">
-        <v>186567.2095714951</v>
+        <v>143976.4355123877</v>
       </c>
       <c r="F74">
-        <v>186585.4954463975</v>
+        <v>143976.9254878106</v>
       </c>
       <c r="G74">
-        <v>186585.8136382288</v>
+        <v>143977.3224374529</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -5350,19 +5350,19 @@
         <v>0</v>
       </c>
       <c r="C75">
-        <v>101928.88795408</v>
+        <v>97788.11936240898</v>
       </c>
       <c r="D75">
-        <v>174094.8072870575</v>
+        <v>145582.9472183754</v>
       </c>
       <c r="E75">
-        <v>189149.7022271509</v>
+        <v>145975.5566562319</v>
       </c>
       <c r="F75">
-        <v>189176.1040158478</v>
+        <v>145976.072677031</v>
       </c>
       <c r="G75">
-        <v>189176.4279308958</v>
+        <v>145976.4891464624</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -5373,19 +5373,19 @@
         <v>0</v>
       </c>
       <c r="C76">
-        <v>101928.189336834</v>
+        <v>97788.4099889729</v>
       </c>
       <c r="D76">
-        <v>174826.3051390373</v>
+        <v>147461.9227876625</v>
       </c>
       <c r="E76">
-        <v>191728.9850305085</v>
+        <v>147974.6507417775</v>
       </c>
       <c r="F76">
-        <v>191766.6976389093</v>
+        <v>147975.1950217064</v>
       </c>
       <c r="G76">
-        <v>191767.0273715978</v>
+        <v>147975.6328666804</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -5396,19 +5396,19 @@
         <v>0</v>
       </c>
       <c r="C77">
-        <v>101927.490052297</v>
+        <v>97788.3422403374</v>
       </c>
       <c r="D77">
-        <v>175458.3263440493</v>
+        <v>149311.499953662</v>
       </c>
       <c r="E77">
-        <v>194303.9988251546</v>
+        <v>149973.7160856937</v>
       </c>
       <c r="F77">
-        <v>194357.276352682</v>
+        <v>149974.2906751653</v>
       </c>
       <c r="G77">
-        <v>194357.6122100849</v>
+        <v>149974.7516122003</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -5419,19 +5419,19 @@
         <v>0</v>
       </c>
       <c r="C78">
-        <v>101926.7904178011</v>
+        <v>97788.04081282778</v>
       </c>
       <c r="D78">
-        <v>175999.0360454065</v>
+        <v>151126.6565302231</v>
       </c>
       <c r="E78">
-        <v>196873.4086453755</v>
+        <v>151972.7512625827</v>
       </c>
       <c r="F78">
-        <v>196947.8397642172</v>
+        <v>151973.358035278</v>
       </c>
       <c r="G78">
-        <v>196948.1823036628</v>
+        <v>151973.8435868738</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -5442,19 +5442,19 @@
         <v>0</v>
       </c>
       <c r="C79">
-        <v>101926.0906021855</v>
+        <v>97787.58901967161</v>
       </c>
       <c r="D79">
-        <v>176457.0320327592</v>
+        <v>152902.0426540627</v>
       </c>
       <c r="E79">
-        <v>199435.5572867899</v>
+        <v>153971.755118881</v>
       </c>
       <c r="F79">
-        <v>199538.3870554075</v>
+        <v>153972.3957977174</v>
       </c>
       <c r="G79">
-        <v>199538.7371432521</v>
+        <v>153972.9072424974</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -5465,19 +5465,19 @@
         <v>0</v>
       </c>
       <c r="C80">
-        <v>101925.3906940494</v>
+        <v>97787.04172710987</v>
       </c>
       <c r="D80">
-        <v>176841.0755956615</v>
+        <v>154632.073729611</v>
       </c>
       <c r="E80">
-        <v>201988.4184540485</v>
+        <v>155970.7267572463</v>
       </c>
       <c r="F80">
-        <v>202128.9169850643</v>
+        <v>155971.4029992106</v>
       </c>
       <c r="G80">
-        <v>202129.2758924085</v>
+        <v>155971.9413297953</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -5488,19 +5488,19 @@
         <v>0</v>
       </c>
       <c r="C81">
-        <v>101924.6907392574</v>
+        <v>97786.43455909236</v>
       </c>
       <c r="D81">
-        <v>177159.8476825891</v>
+        <v>156311.0440944727</v>
       </c>
       <c r="E81">
-        <v>204529.5517751225</v>
+        <v>157969.6654816602</v>
       </c>
       <c r="F81">
-        <v>204719.4278782023</v>
+        <v>157970.3790483385</v>
       </c>
       <c r="G81">
-        <v>204719.7974371028</v>
+        <v>157970.944939352</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5511,19 +5511,19 @@
         <v>0</v>
       </c>
       <c r="C82">
-        <v>101923.9907612359</v>
+        <v>97785.79032603178</v>
       </c>
       <c r="D82">
-        <v>177421.7394585733</v>
+        <v>157933.2579616594</v>
       </c>
       <c r="E82">
-        <v>207056.0624199267</v>
+        <v>159968.5706910221</v>
       </c>
       <c r="F82">
-        <v>207309.9175890976</v>
+        <v>159969.3237421956</v>
       </c>
       <c r="G82">
-        <v>207310.3004439346</v>
+        <v>159969.9175302112</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5534,19 +5534,19 @@
         <v>0</v>
       </c>
       <c r="C83">
-        <v>101923.2907717931</v>
+        <v>97785.12343519471</v>
       </c>
       <c r="D83">
-        <v>177634.6829366506</v>
+        <v>159493.1727786505</v>
       </c>
       <c r="E83">
-        <v>209564.5684074357</v>
+        <v>161967.4417054331</v>
       </c>
       <c r="F83">
-        <v>209900.3834200495</v>
+        <v>161968.2372680905</v>
       </c>
       <c r="G83">
-        <v>209900.7834243488</v>
+        <v>161968.8589446044</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5557,19 +5557,19 @@
         <v>0</v>
       </c>
       <c r="C84">
-        <v>101922.590776804</v>
+        <v>97784.44286470607</v>
       </c>
       <c r="D84">
-        <v>177806.0240329266</v>
+        <v>160985.5489681183</v>
       </c>
       <c r="E84">
-        <v>212051.1788780455</v>
+        <v>163966.2775043464</v>
       </c>
       <c r="F84">
-        <v>212490.8219716806</v>
+        <v>163967.1201903865</v>
       </c>
       <c r="G84">
-        <v>212491.2448023488</v>
+        <v>163967.7694081199</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="C85">
-        <v>101921.8907791547</v>
+        <v>97783.75413583707</v>
       </c>
       <c r="D85">
-        <v>177942.4374312505</v>
+        <v>162405.5991982517</v>
       </c>
       <c r="E85">
-        <v>214511.4865993514</v>
+        <v>165965.0763489293</v>
       </c>
       <c r="F85">
-        <v>215081.2288926986</v>
+        <v>165965.9734234553</v>
       </c>
       <c r="G85">
-        <v>215081.6829831273</v>
+        <v>165966.6495154974</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -5603,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="C86">
-        <v>101921.1907802446</v>
+        <v>97783.06060002875</v>
       </c>
       <c r="D86">
-        <v>178049.8802295618</v>
+        <v>163749.129961645</v>
       </c>
       <c r="E86">
-        <v>216940.5777269069</v>
+        <v>167963.8352520452</v>
       </c>
       <c r="F86">
-        <v>217671.5984870325</v>
+        <v>167964.7981924809</v>
       </c>
       <c r="G86">
-        <v>217672.0964200328</v>
+        <v>167965.5002030778</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5626,19 +5626,19 @@
         <v>0</v>
       </c>
       <c r="C87">
-        <v>101920.4907807441</v>
+        <v>97782.36426567675</v>
       </c>
       <c r="D87">
-        <v>178133.5795778706</v>
+        <v>165012.6683718252</v>
       </c>
       <c r="E87">
-        <v>219333.0613363575</v>
+        <v>169962.5492479567</v>
       </c>
       <c r="F87">
-        <v>220261.9231238394</v>
+        <v>169963.595984451</v>
       </c>
       <c r="G87">
-        <v>220262.4836773165</v>
+        <v>169964.3227096507</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5649,19 +5649,19 @@
         <v>0</v>
       </c>
       <c r="C88">
-        <v>101919.7907809705</v>
+        <v>97781.66632121333</v>
       </c>
       <c r="D88">
-        <v>178198.0484287732</v>
+        <v>166193.5677214158</v>
       </c>
       <c r="E88">
-        <v>221683.1204801906</v>
+        <v>171961.2104000961</v>
       </c>
       <c r="F88">
-        <v>222852.1923808553</v>
+        <v>171962.368492055</v>
       </c>
       <c r="G88">
-        <v>222852.8434862565</v>
+        <v>171963.118528001</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5672,19 +5672,19 @@
         <v>0</v>
       </c>
       <c r="C89">
-        <v>101919.090781072</v>
+        <v>97780.96746116139</v>
       </c>
       <c r="D89">
-        <v>178247.1230597725</v>
+        <v>167290.0864446724</v>
       </c>
       <c r="E89">
-        <v>223984.5855257956</v>
+        <v>173959.8064690807</v>
       </c>
       <c r="F89">
-        <v>225442.3918338561</v>
+        <v>173961.1175533913</v>
       </c>
       <c r="G89">
-        <v>225443.1747924794</v>
+        <v>173961.8893498176</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -5695,19 +5695,19 @@
         <v>0</v>
       </c>
       <c r="C90">
-        <v>101918.3907811169</v>
+        <v>97780.26808644556</v>
       </c>
       <c r="D90">
-        <v>178284.0160986696</v>
+        <v>168301.4366055773</v>
       </c>
       <c r="E90">
-        <v>226231.0293509668</v>
+        <v>175958.3191449157</v>
       </c>
       <c r="F90">
-        <v>228032.5013847069</v>
+        <v>175959.8450903244</v>
       </c>
       <c r="G90">
-        <v>228033.4767926548</v>
+        <v>175960.6370067619</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -5718,19 +5718,19 @@
         <v>0</v>
       </c>
       <c r="C91">
-        <v>101917.6907811366</v>
+        <v>97779.56842571795</v>
       </c>
       <c r="D91">
-        <v>178311.379267032</v>
+        <v>169227.7997724631</v>
       </c>
       <c r="E91">
-        <v>228415.8826803312</v>
+        <v>177956.7217276472</v>
       </c>
       <c r="F91">
-        <v>230622.4929980461</v>
+        <v>177958.5530481178</v>
       </c>
       <c r="G91">
-        <v>230623.7489591912</v>
+        <v>177959.3634104438</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5741,19 +5741,19 @@
         <v>0</v>
       </c>
       <c r="C92">
-        <v>101916.9907811452</v>
+        <v>97778.86860783229</v>
       </c>
       <c r="D92">
-        <v>178331.3708209264</v>
+        <v>170070.310000883</v>
       </c>
       <c r="E92">
-        <v>230532.5665311781</v>
+        <v>179954.976120605</v>
       </c>
       <c r="F92">
-        <v>233212.3276928083</v>
+        <v>179957.243338583</v>
       </c>
       <c r="G92">
-        <v>233213.9910520941</v>
+        <v>179958.0704938114</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5764,19 +5764,19 @@
         <v>0</v>
       </c>
       <c r="C93">
-        <v>101916.2907811489</v>
+        <v>97778.1687045508</v>
       </c>
       <c r="D93">
-        <v>178345.7235873766</v>
+        <v>170831.005480538</v>
       </c>
       <c r="E93">
-        <v>232574.6374999753</v>
+        <v>181953.0289812786</v>
       </c>
       <c r="F93">
-        <v>235801.9516108454</v>
+        <v>181955.9177885137</v>
       </c>
       <c r="G93">
-        <v>235804.2031177361</v>
+        <v>181956.7601560898</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5787,19 +5787,19 @@
         <v>0</v>
       </c>
       <c r="C94">
-        <v>101915.5907811504</v>
+        <v>97777.46875537705</v>
       </c>
       <c r="D94">
-        <v>178355.8104608919</v>
+        <v>171512.7520693266</v>
       </c>
       <c r="E94">
-        <v>234535.9405630624</v>
+        <v>183950.8068586662</v>
       </c>
       <c r="F94">
-        <v>238391.2909625686</v>
+        <v>183954.5780946692</v>
       </c>
       <c r="G94">
-        <v>238394.3854748899</v>
+        <v>183955.4342129454</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -5810,19 +5810,19 @@
         <v>0</v>
       </c>
       <c r="C95">
-        <v>101914.890781151</v>
+        <v>97776.76878180887</v>
       </c>
       <c r="D95">
-        <v>178362.7051516769</v>
+        <v>172119.1433187458</v>
       </c>
       <c r="E95">
-        <v>236410.7632798144</v>
+        <v>185948.2101349971</v>
       </c>
       <c r="F95">
-        <v>240980.2456312192</v>
+        <v>185953.2257860478</v>
       </c>
       <c r="G95">
-        <v>240984.5386889417</v>
+        <v>185954.0943530498</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -5833,19 +5833,19 @@
         <v>0</v>
       </c>
       <c r="C96">
-        <v>101914.1907811512</v>
+        <v>97776.06879541276</v>
       </c>
       <c r="D96">
-        <v>178367.2368060434</v>
+        <v>172654.3826019622</v>
       </c>
       <c r="E96">
-        <v>238193.9848491847</v>
+        <v>187945.105586778</v>
       </c>
       <c r="F96">
-        <v>243568.6812059671</v>
+        <v>187951.8621937426</v>
       </c>
       <c r="G96">
-        <v>243574.663535692</v>
+        <v>187952.7421017287</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -5856,19 +5856,19 @@
         <v>0</v>
       </c>
       <c r="C97">
-        <v>101913.4907811514</v>
+        <v>97775.368802343</v>
       </c>
       <c r="D97">
-        <v>178370.0378146571</v>
+        <v>173123.153538472</v>
       </c>
       <c r="E97">
-        <v>239881.2134302317</v>
+        <v>189941.3173881595</v>
       </c>
       <c r="F97">
-        <v>246156.4192129521</v>
+        <v>189950.4884282834</v>
       </c>
       <c r="G97">
-        <v>246164.7609565279</v>
+        <v>189951.3787919369</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -5879,19 +5879,19 @@
         <v>0</v>
       </c>
       <c r="C98">
-        <v>101912.7907811514</v>
+        <v>97774.66880583763</v>
       </c>
       <c r="D98">
-        <v>178371.5846712118</v>
+        <v>173530.4850566325</v>
       </c>
       <c r="E98">
-        <v>241468.9055116224</v>
+        <v>191936.6164017826</v>
       </c>
       <c r="F98">
-        <v>248743.2253263854</v>
+        <v>191949.1053640763</v>
       </c>
       <c r="G98">
-        <v>248754.8320069584</v>
+        <v>191950.0055424367</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -5902,19 +5902,19 @@
         <v>0</v>
       </c>
       <c r="C99">
-        <v>101912.0907811514</v>
+        <v>97773.96880758241</v>
       </c>
       <c r="D99">
-        <v>178372.2321449578</v>
+        <v>173881.6171737737</v>
       </c>
       <c r="E99">
-        <v>242954.4618877289</v>
+        <v>193930.7076414403</v>
       </c>
       <c r="F99">
-        <v>251328.7953727509</v>
+        <v>193947.713630368</v>
       </c>
       <c r="G99">
-        <v>251344.8778005454</v>
+        <v>193948.6232427799</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -5925,19 +5925,19 @@
         <v>0</v>
       </c>
       <c r="C100">
-        <v>101911.3907811514</v>
+        <v>97773.26880844461</v>
       </c>
       <c r="D100">
-        <v>178372.2412986814</v>
+        <v>174181.8729607697</v>
       </c>
       <c r="E100">
-        <v>244336.2959201987</v>
+        <v>195923.2158495518</v>
       </c>
       <c r="F100">
-        <v>253912.7389936009</v>
+        <v>195946.3136080596</v>
       </c>
       <c r="G100">
-        <v>253934.8994500752</v>
+        <v>195947.2325445218</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -5948,19 +5948,19 @@
         <v>0</v>
       </c>
       <c r="C101">
-        <v>101910.6907811515</v>
+        <v>97772.56880886671</v>
       </c>
       <c r="D101">
-        <v>178371.8020395943</v>
+        <v>174436.5412740953</v>
       </c>
       <c r="E101">
-        <v>245613.8711555219</v>
+        <v>197913.6692121556</v>
       </c>
       <c r="F101">
-        <v>256494.5609094075</v>
+        <v>197944.9054316729</v>
       </c>
       <c r="G101">
-        <v>256524.8980074106</v>
+        <v>197945.833858015</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -5971,19 +5971,19 @@
         <v>0</v>
       </c>
       <c r="C102">
-        <v>101909.9907811515</v>
+        <v>97771.86880907125</v>
       </c>
       <c r="D102">
-        <v>178371.0509572978</v>
+        <v>174650.773776677</v>
       </c>
       <c r="E102">
-        <v>246787.7069313721</v>
+        <v>199901.4813352624</v>
       </c>
       <c r="F102">
-        <v>259073.6398302639</v>
+        <v>199943.4889958075</v>
       </c>
       <c r="G102">
-        <v>259114.8744027971</v>
+        <v>199944.4273541251</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -5994,19 +5994,19 @@
         <v>0</v>
       </c>
       <c r="C103">
-        <v>101909.2907811515</v>
+        <v>97771.16880916938</v>
       </c>
       <c r="D103">
-        <v>178370.0852036671</v>
+        <v>174829.4986252408</v>
       </c>
       <c r="E103">
-        <v>247859.3522254583</v>
+        <v>201885.9317276736</v>
       </c>
       <c r="F103">
-        <v>261649.2051891969</v>
+        <v>201942.0639654763</v>
       </c>
       <c r="G103">
-        <v>261704.8293834566</v>
+        <v>201943.0129702693</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -6017,19 +6017,19 @@
         <v>0</v>
       </c>
       <c r="C104">
-        <v>101908.5907811515</v>
+        <v>97770.46880921606</v>
       </c>
       <c r="D104">
-        <v>178368.973125114</v>
+        <v>174977.3520663326</v>
       </c>
       <c r="E104">
-        <v>248831.3295665148</v>
+        <v>203866.1451736291</v>
       </c>
       <c r="F104">
-        <v>264220.3120286929</v>
+        <v>203940.62978977</v>
       </c>
       <c r="G104">
-        <v>264294.7634500614</v>
+        <v>203941.5904202719</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -6040,19 +6040,19 @@
         <v>0</v>
       </c>
       <c r="C105">
-        <v>101907.8907811514</v>
+        <v>97769.76880923798</v>
       </c>
       <c r="D105">
-        <v>178367.7622859538</v>
+        <v>175098.6281325245</v>
       </c>
       <c r="E105">
-        <v>249707.052232273</v>
+        <v>205841.0705285845</v>
       </c>
       <c r="F105">
-        <v>266785.8145465322</v>
+        <v>205939.1857183257</v>
       </c>
       <c r="G105">
-        <v>266884.6767880733</v>
+        <v>205940.1592076411</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -6063,19 +6063,19 @@
         <v>0</v>
       </c>
       <c r="C106">
-        <v>101907.1907811514</v>
+        <v>97769.06880924827</v>
       </c>
       <c r="D106">
-        <v>178366.485436427</v>
+        <v>175197.2457234383</v>
       </c>
       <c r="E106">
-        <v>250490.7191153294</v>
+        <v>207809.4596256221</v>
       </c>
       <c r="F106">
-        <v>269344.3389963522</v>
+        <v>207937.7308200426</v>
       </c>
       <c r="G106">
-        <v>269474.5691889283</v>
+        <v>207938.7186419636</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -6086,19 +6086,19 @@
         <v>0</v>
       </c>
       <c r="C107">
-        <v>101906.4907811515</v>
+        <v>97768.36880925296</v>
       </c>
       <c r="D107">
-        <v>178365.1648906245</v>
+        <v>175276.7316317512</v>
       </c>
       <c r="E107">
-        <v>251187.1924800836</v>
+        <v>209769.8471290428</v>
       </c>
       <c r="F107">
-        <v>271894.2568319768</v>
+        <v>209936.2640033898</v>
       </c>
       <c r="G107">
-        <v>272064.4399535652</v>
+        <v>209937.2678582044</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -6109,19 +6109,19 @@
         <v>0</v>
       </c>
       <c r="C108">
-        <v>101905.7907811514</v>
+        <v>97767.66880925516</v>
       </c>
       <c r="D108">
-        <v>178363.8156950776</v>
+        <v>175340.2175507553</v>
       </c>
       <c r="E108">
-        <v>251801.8643256388</v>
+        <v>211720.5323045367</v>
       </c>
       <c r="F108">
-        <v>274433.6591705038</v>
+        <v>211934.7840374435</v>
       </c>
       <c r="G108">
-        <v>274654.2877677134</v>
+        <v>211935.8058387281</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -6132,19 +6132,19 @@
         <v>0</v>
       </c>
       <c r="C109">
-        <v>101905.0907811515</v>
+        <v>97766.96880925617</v>
       </c>
       <c r="D109">
-        <v>178362.4478923535</v>
+        <v>175390.4487774224</v>
       </c>
       <c r="E109">
-        <v>252340.5172030153</v>
+        <v>213659.5637799843</v>
       </c>
       <c r="F109">
-        <v>276960.3338135081</v>
+        <v>213933.2895724707</v>
       </c>
       <c r="G109">
-        <v>277244.1105346337</v>
+        <v>213934.3314378685</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -6155,19 +6155,19 @@
         <v>0</v>
       </c>
       <c r="C110">
-        <v>101904.3907811515</v>
+        <v>97766.26880925662</v>
       </c>
       <c r="D110">
-        <v>178361.0681177495</v>
+        <v>175429.8021883463</v>
       </c>
       <c r="E110">
-        <v>252809.1851299658</v>
+        <v>215584.7284351893</v>
       </c>
       <c r="F110">
-        <v>279471.7461934175</v>
+        <v>215931.779158429</v>
       </c>
       <c r="G110">
-        <v>279833.9051464692</v>
+        <v>215932.8434088312</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -6178,19 +6178,19 @@
         <v>0</v>
       </c>
       <c r="C111">
-        <v>101903.6907811515</v>
+        <v>97765.56880925679</v>
       </c>
       <c r="D111">
-        <v>178359.6807117459</v>
+        <v>175460.3110894809</v>
       </c>
       <c r="E111">
-        <v>253214.0197461162</v>
+        <v>217493.5455713202</v>
       </c>
       <c r="F111">
-        <v>281965.0256879539</v>
+        <v>217930.251259128</v>
       </c>
       <c r="G111">
-        <v>282423.66716994</v>
+        <v>217931.3404326345</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -6201,19 +6201,19 @@
         <v>0</v>
       </c>
       <c r="C112">
-        <v>101902.9907811515</v>
+        <v>97764.86880925699</v>
       </c>
       <c r="D112">
-        <v>178358.2884857834</v>
+        <v>175483.694691617</v>
       </c>
       <c r="E112">
-        <v>253561.1661156975</v>
+        <v>219383.2674620426</v>
       </c>
       <c r="F112">
-        <v>284436.9587554093</v>
+        <v>219928.7042590065</v>
       </c>
       <c r="G112">
-        <v>285013.3904157014</v>
+        <v>219929.8211486959</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -6224,19 +6224,19 @@
         <v>0</v>
       </c>
       <c r="C113">
-        <v>101902.2907811514</v>
+        <v>97764.16880925698</v>
       </c>
       <c r="D113">
-        <v>178356.893243231</v>
+        <v>175501.3902067253</v>
       </c>
       <c r="E113">
-        <v>253856.6516861237</v>
+        <v>221250.8872717153</v>
       </c>
       <c r="F113">
-        <v>286883.9902758079</v>
+        <v>221927.1364584705</v>
       </c>
       <c r="G113">
-        <v>287603.066353213</v>
+        <v>221928.2841865496</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -6247,19 +6247,19 @@
         <v>0</v>
       </c>
       <c r="C114">
-        <v>101901.5907811515</v>
+        <v>97763.468809257</v>
       </c>
       <c r="D114">
-        <v>178355.4961297429</v>
+        <v>175514.5858610481</v>
       </c>
       <c r="E114">
-        <v>254106.2909232054</v>
+        <v>223093.1551390058</v>
       </c>
       <c r="F114">
-        <v>289302.2343298373</v>
+        <v>223925.54605245</v>
       </c>
       <c r="G114">
-        <v>290192.6833244035</v>
+        <v>223926.7281980602</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -6270,19 +6270,19 @@
         <v>0</v>
       </c>
       <c r="C115">
-        <v>101900.8907811515</v>
+        <v>97762.76880925697</v>
       </c>
       <c r="D115">
-        <v>178354.0978662317</v>
+        <v>175524.2534479193</v>
       </c>
       <c r="E115">
-        <v>254315.6071402524</v>
+        <v>224906.602968908</v>
       </c>
       <c r="F115">
-        <v>291687.4954059208</v>
+        <v>225923.9310852747</v>
       </c>
       <c r="G115">
-        <v>292782.2254998604</v>
+        <v>225925.1518893917</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -6293,19 +6293,19 @@
         <v>0</v>
       </c>
       <c r="C116">
-        <v>101900.1907811515</v>
+        <v>97762.06880925699</v>
       </c>
       <c r="D116">
-        <v>178352.6989020825</v>
+        <v>175531.1793705947</v>
       </c>
       <c r="E116">
-        <v>254489.7720829228</v>
+        <v>226687.5781595668</v>
       </c>
       <c r="F116">
-        <v>294035.300698906</v>
+        <v>227922.2893730035</v>
       </c>
       <c r="G116">
-        <v>295371.6715108152</v>
+        <v>227923.5540519072</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -6316,19 +6316,19 @@
         <v>0</v>
       </c>
       <c r="C117">
-        <v>101899.4907811514</v>
+        <v>97761.36880925698</v>
       </c>
       <c r="D117">
-        <v>178351.2995148222</v>
+        <v>175535.9934327398</v>
       </c>
       <c r="E117">
-        <v>254633.5629765589</v>
+        <v>228432.2861248491</v>
       </c>
       <c r="F117">
-        <v>296340.9437609296</v>
+        <v>229920.6183819753</v>
       </c>
       <c r="G117">
-        <v>297960.9926791862</v>
+        <v>229921.9335911261</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -6339,19 +6339,19 @@
         <v>0</v>
       </c>
       <c r="C118">
-        <v>101898.7907811515</v>
+        <v>97760.668809257</v>
       </c>
       <c r="D118">
-        <v>178349.8998742695</v>
+        <v>175539.1949076512</v>
       </c>
       <c r="E118">
-        <v>254751.3360255685</v>
+        <v>230136.8410762208</v>
       </c>
       <c r="F118">
-        <v>298599.5393017613</v>
+        <v>231918.915049466</v>
       </c>
       <c r="G118">
-        <v>300550.1507567319</v>
+        <v>231920.2895528638</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -6362,19 +6362,19 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <v>101898.0907811514</v>
+        <v>97759.96880925693</v>
       </c>
       <c r="D119">
-        <v>178348.5000833923</v>
+        <v>175541.1756485293</v>
       </c>
       <c r="E119">
-        <v>254847.0147976525</v>
+        <v>231797.3241190918</v>
       </c>
       <c r="F119">
-        <v>300806.0884339125</v>
+        <v>233917.1755288805</v>
       </c>
       <c r="G119">
-        <v>303139.0950736263</v>
+        <v>233918.6211457212</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -6385,19 +6385,19 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <v>101897.3907811515</v>
+        <v>97759.26880925697</v>
       </c>
       <c r="D120">
-        <v>178347.1002040627</v>
+        <v>175542.2401878726</v>
       </c>
       <c r="E120">
-        <v>254924.0915372793</v>
+        <v>233409.8473228196</v>
       </c>
       <c r="F120">
-        <v>302955.5531432854</v>
+        <v>235915.3948378356</v>
       </c>
       <c r="G120">
-        <v>305727.7589872369</v>
+        <v>235916.927759179</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -6408,19 +6408,19 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <v>101896.6907811515</v>
+        <v>97758.56880925699</v>
       </c>
       <c r="D121">
-        <v>178345.7002731279</v>
+        <v>175542.6229149153</v>
       </c>
       <c r="E121">
-        <v>254985.6392280261</v>
+        <v>234970.6220644944</v>
       </c>
       <c r="F121">
-        <v>305042.9382685548</v>
+        <v>237913.5663827398</v>
       </c>
       <c r="G121">
-        <v>308316.0555145496</v>
+        <v>237915.2089766862</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -6431,19 +6431,19 @@
         <v>0</v>
       </c>
       <c r="C122">
-        <v>101895.9907811515</v>
+        <v>97757.86880925696</v>
       </c>
       <c r="D122">
-        <v>178344.3003123385</v>
+        <v>175542.5025195096</v>
       </c>
       <c r="E122">
-        <v>255034.3321472488</v>
+        <v>236476.0296481675</v>
       </c>
       <c r="F122">
-        <v>307063.3788224785</v>
+        <v>239911.6813280661</v>
       </c>
       <c r="G122">
-        <v>310903.8720277081</v>
+        <v>239913.4645833016</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -6454,19 +6454,19 @@
         <v>0</v>
       </c>
       <c r="C123">
-        <v>101895.2907811515</v>
+        <v>97757.16880925697</v>
       </c>
       <c r="D123">
-        <v>178342.9003344215</v>
+        <v>175542.0139542096</v>
       </c>
       <c r="E123">
-        <v>255072.4727068734</v>
+        <v>237922.6919844274</v>
       </c>
       <c r="F123">
-        <v>309012.2301153736</v>
+        <v>241909.7277724692</v>
       </c>
       <c r="G123">
-        <v>313491.0638927993</v>
+        <v>241911.6945676382</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -6477,19 +6477,19 @@
         <v>0</v>
       </c>
       <c r="C124">
-        <v>101894.5907811514</v>
+        <v>97756.4688092569</v>
       </c>
       <c r="D124">
-        <v>178341.5003467595</v>
+        <v>175541.2581998156</v>
       </c>
       <c r="E124">
-        <v>255102.022524453</v>
+        <v>239307.5399970074</v>
       </c>
       <c r="F124">
-        <v>310885.1578714481</v>
+        <v>243907.6896873445</v>
       </c>
       <c r="G124">
-        <v>316077.446938751</v>
+        <v>243909.8991180715</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -6500,19 +6500,19 @@
         <v>0</v>
       </c>
       <c r="C125">
-        <v>101893.8907811515</v>
+        <v>97755.76880925696</v>
       </c>
       <c r="D125">
-        <v>178340.1003535986</v>
+        <v>175540.3101297299</v>
       </c>
       <c r="E125">
-        <v>255124.6358911649</v>
+        <v>240627.8774144579</v>
       </c>
       <c r="F125">
-        <v>312678.2253832596</v>
+        <v>245905.545566524</v>
       </c>
       <c r="G125">
-        <v>318662.7886573864</v>
+        <v>245908.0786133839</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -6523,19 +6523,19 @@
         <v>0</v>
       </c>
       <c r="C126">
-        <v>101893.1907811514</v>
+        <v>97755.06880925696</v>
       </c>
       <c r="D126">
-        <v>178338.7003573599</v>
+        <v>175539.2247612577</v>
       </c>
       <c r="E126">
-        <v>255141.6940710482</v>
+        <v>241881.437710246</v>
       </c>
       <c r="F126">
-        <v>314387.974742016</v>
+        <v>247903.2667288613</v>
       </c>
       <c r="G126">
-        <v>321246.7980587233</v>
+        <v>247906.2336082186</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -6546,19 +6546,19 @@
         <v>0</v>
       </c>
       <c r="C127">
-        <v>101892.4907811514</v>
+        <v>97754.36880925696</v>
       </c>
       <c r="D127">
-        <v>178337.3003594124</v>
+        <v>175538.0421629451</v>
       </c>
       <c r="E127">
-        <v>255154.3391541608</v>
+        <v>243066.4321709827</v>
       </c>
       <c r="F127">
-        <v>316011.499316924</v>
+        <v>249900.8152088309</v>
       </c>
       <c r="G127">
-        <v>323829.1141385763</v>
+        <v>249904.3648138908</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -6569,19 +6569,19 @@
         <v>0</v>
       </c>
       <c r="C128">
-        <v>101891.7907811515</v>
+        <v>97753.66880925694</v>
       </c>
       <c r="D128">
-        <v>178335.9003605238</v>
+        <v>175536.7912607508</v>
       </c>
       <c r="E128">
-        <v>255163.5064749019</v>
+        <v>244181.587389841</v>
       </c>
       <c r="F128">
-        <v>317546.5049315999</v>
+        <v>251898.141164468</v>
       </c>
       <c r="G128">
-        <v>326409.2929593312</v>
+        <v>251902.4730752705</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -6592,19 +6592,19 @@
         <v>0</v>
       </c>
       <c r="C129">
-        <v>101891.0907811514</v>
+        <v>97752.96880925696</v>
       </c>
       <c r="D129">
-        <v>178334.500361121</v>
+        <v>175535.492755958</v>
       </c>
       <c r="E129">
-        <v>255169.9548794227</v>
+        <v>245226.1708839893</v>
       </c>
       <c r="F129">
-        <v>318991.3575869378</v>
+        <v>253895.1797276149</v>
       </c>
       <c r="G129">
-        <v>328986.7933997078</v>
+        <v>253900.5593445396</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -6615,19 +6615,19 @@
         <v>0</v>
       </c>
       <c r="C130">
-        <v>101890.3907811515</v>
+        <v>97752.26880925694</v>
       </c>
       <c r="D130">
-        <v>178333.1003614395</v>
+        <v>175534.1613370057</v>
       </c>
       <c r="E130">
-        <v>255174.2943713946</v>
+        <v>246200.0039991369</v>
       </c>
       <c r="F130">
-        <v>320345.1160870228</v>
+        <v>255891.8472192212</v>
       </c>
       <c r="G130">
-        <v>331560.9616951514</v>
+        <v>255898.6246527256</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -6638,19 +6638,19 @@
         <v>0</v>
       </c>
       <c r="C131">
-        <v>101889.6907811515</v>
+        <v>97751.56880925701</v>
       </c>
       <c r="D131">
-        <v>178331.7003616079</v>
+        <v>175532.8073378099</v>
       </c>
       <c r="E131">
-        <v>255177.0108762665</v>
+        <v>247103.4617653106</v>
       </c>
       <c r="F131">
-        <v>321607.5485101936</v>
+        <v>257888.0366531645</v>
       </c>
       <c r="G131">
-        <v>334131.0149662198</v>
+        <v>257896.6700799269</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -6661,19 +6661,19 @@
         <v>0</v>
       </c>
       <c r="C132">
-        <v>101888.9907811515</v>
+        <v>97750.86880925692</v>
       </c>
       <c r="D132">
-        <v>178330.3003616965</v>
+        <v>175531.4379678755</v>
       </c>
       <c r="E132">
-        <v>255178.4880372652</v>
+        <v>247937.4598781287</v>
       </c>
       <c r="F132">
-        <v>322779.1320990251</v>
+        <v>259883.612456589</v>
       </c>
       <c r="G132">
-        <v>336696.0240160713</v>
+        <v>259894.6967251426</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -6684,19 +6684,19 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <v>101888.2907811515</v>
+        <v>97750.16880925691</v>
       </c>
       <c r="D133">
-        <v>178328.9003617426</v>
+        <v>175530.0582153152</v>
       </c>
       <c r="E133">
-        <v>255179.0260915656</v>
+        <v>248703.4294714048</v>
       </c>
       <c r="F133">
-        <v>323861.0367862037</v>
+        <v>261878.4043439232</v>
       </c>
       <c r="G133">
-        <v>339254.8957671811</v>
+        <v>261892.7056765734</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -6707,19 +6707,19 @@
         <v>0</v>
       </c>
       <c r="C134">
-        <v>101887.5907811515</v>
+        <v>97749.46880925696</v>
       </c>
       <c r="D134">
-        <v>178327.5003617664</v>
+        <v>175528.6715030354</v>
       </c>
       <c r="E134">
-        <v>255178.8579744913</v>
+        <v>249403.2807942128</v>
       </c>
       <c r="F134">
-        <v>324855.0931934156</v>
+        <v>263872.200296382</v>
       </c>
       <c r="G134">
-        <v>341806.3557980707</v>
+        <v>263890.6979831749</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -6730,19 +6730,19 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <v>101886.8907811515</v>
+        <v>97748.76880925696</v>
       </c>
       <c r="D135">
-        <v>178326.1003617787</v>
+        <v>175527.2801608342</v>
       </c>
       <c r="E135">
-        <v>255178.1628670892</v>
+        <v>250039.3572863681</v>
       </c>
       <c r="F135">
-        <v>325763.7465051948</v>
+        <v>265864.7386195408</v>
       </c>
       <c r="G135">
-        <v>344348.9315286443</v>
+        <v>265888.674628147</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -6753,19 +6753,19 @@
         <v>0</v>
       </c>
       <c r="C136">
-        <v>101886.1907811515</v>
+        <v>97748.06880925701</v>
       </c>
       <c r="D136">
-        <v>178324.7003617849</v>
+        <v>175525.885761757</v>
       </c>
       <c r="E136">
-        <v>255177.0774426846</v>
+        <v>250614.3818434533</v>
       </c>
       <c r="F136">
-        <v>326589.9981014155</v>
+        <v>267855.6990790276</v>
       </c>
       <c r="G136">
-        <v>346880.9366825385</v>
+        <v>267886.6365049007</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -6776,19 +6776,19 @@
         <v>0</v>
       </c>
       <c r="C137">
-        <v>101885.4907811515</v>
+        <v>97747.36880925694</v>
       </c>
       <c r="D137">
-        <v>178323.3003617882</v>
+        <v>175524.4893594588</v>
       </c>
       <c r="E137">
-        <v>255175.7050861793</v>
+        <v>251131.3972646932</v>
       </c>
       <c r="F137">
-        <v>327337.3372091175</v>
+        <v>269844.6931486834</v>
       </c>
       <c r="G137">
-        <v>349400.4577210753</v>
+        <v>269884.5843959102</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -6799,19 +6799,19 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <v>101884.7907811514</v>
+        <v>97746.66880925698</v>
       </c>
       <c r="D138">
-        <v>178321.9003617897</v>
+        <v>175523.0916541411</v>
       </c>
       <c r="E138">
-        <v>255174.1233609357</v>
+        <v>251593.7029790498</v>
       </c>
       <c r="F138">
-        <v>328009.6650922299</v>
+        <v>271831.2534466079</v>
       </c>
       <c r="G138">
-        <v>351905.3429901972</v>
+        <v>271882.5189546878</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -6822,19 +6822,19 @@
         <v>0</v>
       </c>
       <c r="C139">
-        <v>101884.0907811514</v>
+        <v>97745.96880925698</v>
       </c>
       <c r="D139">
-        <v>178320.5003617905</v>
+        <v>175521.693107491</v>
       </c>
       <c r="E139">
-        <v>255172.3899867471</v>
+        <v>252004.7901480308</v>
       </c>
       <c r="F139">
-        <v>328611.2144299839</v>
+        <v>273814.8224817262</v>
       </c>
       <c r="G139">
-        <v>354393.1953435517</v>
+        <v>273880.4406909539</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -6845,19 +6845,19 @@
         <v>0</v>
       </c>
       <c r="C140">
-        <v>101883.3907811515</v>
+        <v>97745.26880925699</v>
       </c>
       <c r="D140">
-        <v>178319.1003617909</v>
+        <v>175520.2940215747</v>
       </c>
       <c r="E140">
-        <v>255170.547572696</v>
+        <v>252368.2771546997</v>
       </c>
       <c r="F140">
-        <v>329146.4665425684</v>
+        <v>275794.7408858636</v>
       </c>
       <c r="G140">
-        <v>356861.3689966705</v>
+        <v>275878.3499588856</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -6868,19 +6868,19 @@
         <v>0</v>
       </c>
       <c r="C141">
-        <v>101882.6907811514</v>
+        <v>97744.56880925695</v>
       </c>
       <c r="D141">
-        <v>178317.7003617912</v>
+        <v>175518.8945925116</v>
       </c>
       <c r="E141">
-        <v>255168.6273240495</v>
+        <v>252687.8473188861</v>
       </c>
       <c r="F141">
-        <v>329620.0690142014</v>
+        <v>277770.2353621912</v>
       </c>
       <c r="G141">
-        <v>359306.9713249892</v>
+        <v>277876.2469481227</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -6891,19 +6891,19 @@
         <v>0</v>
       </c>
       <c r="C142">
-        <v>101881.9907811515</v>
+        <v>97743.86880925695</v>
       </c>
       <c r="D142">
-        <v>178316.3003617912</v>
+        <v>175517.4949466677</v>
       </c>
       <c r="E142">
-        <v>255166.6519153926</v>
+        <v>252967.1904439237</v>
       </c>
       <c r="F142">
-        <v>330036.7560536579</v>
+        <v>279740.4066382398</v>
       </c>
       <c r="G142">
-        <v>361726.8702396168</v>
+        <v>279874.1316769927</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -6914,19 +6914,19 @@
         <v>0</v>
       </c>
       <c r="C143">
-        <v>101881.2907811514</v>
+        <v>97743.16880925697</v>
       </c>
       <c r="D143">
-        <v>178314.9003617912</v>
+        <v>175516.0951648521</v>
       </c>
       <c r="E143">
-        <v>255164.6376950264</v>
+        <v>253209.9495180231</v>
       </c>
       <c r="F143">
-        <v>330401.2736394123</v>
+        <v>281704.2177678448</v>
       </c>
       <c r="G143">
-        <v>364117.7076585112</v>
+        <v>281872.0039871593</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -6937,19 +6937,19 @@
         <v>0</v>
       </c>
       <c r="C144">
-        <v>101880.5907811514</v>
+        <v>97742.46880925696</v>
       </c>
       <c r="D144">
-        <v>178313.5003617912</v>
+        <v>175514.6952983557</v>
       </c>
       <c r="E144">
-        <v>255162.5963596278</v>
+        <v>253419.673582245</v>
       </c>
       <c r="F144">
-        <v>330718.3111428558</v>
+        <v>283660.4831783985</v>
       </c>
       <c r="G144">
-        <v>366475.9194381516</v>
+        <v>283869.8635385893</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -6960,19 +6960,19 @@
         <v>0</v>
       </c>
       <c r="C145">
-        <v>101879.8907811514</v>
+        <v>97741.76880925694</v>
       </c>
       <c r="D145">
-        <v>178312.1003617913</v>
+        <v>175513.2953794928</v>
       </c>
       <c r="E145">
-        <v>255160.5362142533</v>
+        <v>253599.777455293</v>
       </c>
       <c r="F145">
-        <v>330992.4407318842</v>
+        <v>285607.8589043196</v>
       </c>
       <c r="G145">
-        <v>368797.7619453221</v>
+        <v>285867.7098033943</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -6983,19 +6983,19 @@
         <v>0</v>
       </c>
       <c r="C146">
-        <v>101879.1907811515</v>
+        <v>97741.06880925696</v>
       </c>
       <c r="D146">
-        <v>178310.7003617913</v>
+        <v>175511.8954284731</v>
       </c>
       <c r="E146">
-        <v>255158.4631114545</v>
+        <v>253753.5086899281</v>
       </c>
       <c r="F146">
-        <v>331228.0654514677</v>
+        <v>287544.8344812494</v>
       </c>
       <c r="G146">
-        <v>371079.3452357591</v>
+        <v>287865.5420566515</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -7006,19 +7006,19 @@
         <v>0</v>
       </c>
       <c r="C147">
-        <v>101878.4907811514</v>
+        <v>97740.36880925692</v>
       </c>
       <c r="D147">
-        <v>178309.3003617912</v>
+        <v>175510.495457844</v>
       </c>
       <c r="E147">
-        <v>255156.3811448005</v>
+        <v>253883.9218412945</v>
       </c>
       <c r="F147">
-        <v>331429.3764789412</v>
+        <v>289469.7269947471</v>
       </c>
       <c r="G147">
-        <v>373316.6725737925</v>
+        <v>289863.3593617944</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -7029,19 +7029,19 @@
         <v>0</v>
       </c>
       <c r="C148">
-        <v>101877.7907811515</v>
+        <v>97739.66880925697</v>
       </c>
       <c r="D148">
-        <v>178307.9003617914</v>
+        <v>175509.0954753395</v>
       </c>
       <c r="E148">
-        <v>255154.2931564189</v>
+        <v>253993.8598655207</v>
       </c>
       <c r="F148">
-        <v>331600.3196781386</v>
+        <v>291380.6777790386</v>
       </c>
       <c r="G148">
-        <v>375505.6857841702</v>
+        <v>291861.1605475067</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -7052,19 +7052,19 @@
         <v>0</v>
       </c>
       <c r="C149">
-        <v>101877.0907811514</v>
+        <v>97738.96880925696</v>
       </c>
       <c r="D149">
-        <v>178306.5003617913</v>
+        <v>175507.6954856921</v>
       </c>
       <c r="E149">
-        <v>255152.2011051503</v>
+        <v>254085.9422460155</v>
       </c>
       <c r="F149">
-        <v>331744.5712430258</v>
+        <v>293275.6522430364</v>
       </c>
       <c r="G149">
-        <v>377642.3156847163</v>
+        <v>293858.9441722688</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -7075,19 +7075,19 @@
         <v>0</v>
       </c>
       <c r="C150">
-        <v>101876.3907811514</v>
+        <v>97738.26880925696</v>
       </c>
       <c r="D150">
-        <v>178305.1003617913</v>
+        <v>175506.2954917781</v>
       </c>
       <c r="E150">
-        <v>255150.1063312818</v>
+        <v>254162.5592699308</v>
       </c>
       <c r="F150">
-        <v>331865.5219389001</v>
+        <v>295152.4432604918</v>
       </c>
       <c r="G150">
-        <v>379722.5366179903</v>
+        <v>295856.7084717521</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -7098,19 +7098,19 @@
         <v>0</v>
       </c>
       <c r="C151">
-        <v>101875.6907811515</v>
+        <v>97737.56880925698</v>
       </c>
       <c r="D151">
-        <v>178303.7003617914</v>
+        <v>175504.8954953326</v>
       </c>
       <c r="E151">
-        <v>255148.0097452862</v>
+        <v>254225.8717501858</v>
       </c>
       <c r="F151">
-        <v>331966.2692241785</v>
+        <v>297008.678497783</v>
       </c>
       <c r="G151">
-        <v>381742.4238933564</v>
+        <v>297854.4512831047</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -7121,19 +7121,19 @@
         <v>0</v>
       </c>
       <c r="C152">
-        <v>101874.9907811514</v>
+        <v>97736.86880925692</v>
       </c>
       <c r="D152">
-        <v>178302.3003617914</v>
+        <v>175503.4954973951</v>
       </c>
       <c r="E152">
-        <v>255145.9119612577</v>
+        <v>254277.8154082221</v>
       </c>
       <c r="F152">
-        <v>332049.6163708108</v>
+        <v>298841.8319666479</v>
       </c>
       <c r="G152">
-        <v>383698.2127790832</v>
+        <v>299852.1699388062</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -7144,19 +7144,19 @@
         <v>0</v>
       </c>
       <c r="C153">
-        <v>101874.2907811515</v>
+        <v>97736.16880925692</v>
       </c>
       <c r="D153">
-        <v>178300.9003617914</v>
+        <v>175502.095498584</v>
       </c>
       <c r="E153">
-        <v>255143.813390466</v>
+        <v>254320.1090959573</v>
       </c>
       <c r="F153">
-        <v>332118.0775955193</v>
+        <v>300649.2399815432</v>
       </c>
       <c r="G153">
-        <v>385586.3575571916</v>
+        <v>301849.8611211687</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -7167,19 +7167,19 @@
         <v>0</v>
       </c>
       <c r="C154">
-        <v>101873.5907811515</v>
+        <v>97735.46880925691</v>
       </c>
       <c r="D154">
-        <v>178299.5003617913</v>
+        <v>175500.6954992652</v>
       </c>
       <c r="E154">
-        <v>255141.7143064188</v>
+        <v>254354.2660371126</v>
       </c>
       <c r="F154">
-        <v>332173.8881633494</v>
+        <v>302428.1215748658</v>
       </c>
       <c r="G154">
-        <v>387403.5890798395</v>
+        <v>303847.520666696</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -7190,19 +7190,19 @@
         <v>0</v>
       </c>
       <c r="C155">
-        <v>101872.8907811515</v>
+        <v>97734.76880925692</v>
       </c>
       <c r="D155">
-        <v>178298.1003617913</v>
+        <v>175499.2954996529</v>
       </c>
       <c r="E155">
-        <v>255139.6148897456</v>
+        <v>254381.6073018645</v>
       </c>
       <c r="F155">
-        <v>332219.0184232134</v>
+        <v>304175.6032820265</v>
       </c>
       <c r="G155">
-        <v>389146.9692506327</v>
+        <v>305845.1433073814</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -7213,19 +7213,19 @@
         <v>0</v>
       </c>
       <c r="C156">
-        <v>101872.1907811514</v>
+        <v>97734.06880925693</v>
       </c>
       <c r="D156">
-        <v>178296.7003617913</v>
+        <v>175497.895499872</v>
       </c>
       <c r="E156">
-        <v>255137.5152589156</v>
+        <v>254403.2767877183</v>
       </c>
       <c r="F156">
-        <v>332255.1907743726</v>
+        <v>305888.7480573148</v>
       </c>
       <c r="G156">
-        <v>390813.9409001742</v>
+        <v>307842.7223336309</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -7236,19 +7236,19 @@
         <v>0</v>
       </c>
       <c r="C157">
-        <v>101871.4907811514</v>
+        <v>97733.36880925692</v>
       </c>
       <c r="D157">
-        <v>178295.3003617914</v>
+        <v>175496.4954999952</v>
       </c>
       <c r="E157">
-        <v>255135.4154910995</v>
+        <v>254420.2570565566</v>
       </c>
       <c r="F157">
-        <v>332283.8986345404</v>
+        <v>307564.5879267131</v>
       </c>
       <c r="G157">
-        <v>392402.3716319611</v>
+        <v>309840.2491608373</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -7259,19 +7259,19 @@
         <v>0</v>
       </c>
       <c r="C158">
-        <v>101870.7907811515</v>
+        <v>97732.66880925698</v>
       </c>
       <c r="D158">
-        <v>178293.9003617913</v>
+        <v>175495.0955000642</v>
       </c>
       <c r="E158">
-        <v>255133.3156362246</v>
+        <v>254433.3854662749</v>
       </c>
       <c r="F158">
-        <v>332306.4265756471</v>
+        <v>309200.1598319895</v>
       </c>
       <c r="G158">
-        <v>393910.5903789665</v>
+        <v>311837.7127787645</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -7282,19 +7282,19 @@
         <v>0</v>
       </c>
       <c r="C159">
-        <v>101870.0907811515</v>
+        <v>97731.96880925696</v>
       </c>
       <c r="D159">
-        <v>178292.5003617913</v>
+        <v>175493.6955001024</v>
       </c>
       <c r="E159">
-        <v>255131.2157263762</v>
+        <v>254443.3701292179</v>
       </c>
       <c r="F159">
-        <v>332323.8709038212</v>
+        <v>310792.5439785123</v>
       </c>
       <c r="G159">
-        <v>395337.4156262823</v>
+        <v>313835.0990598323</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -7305,19 +7305,19 @@
         <v>0</v>
       </c>
       <c r="C160">
-        <v>101869.3907811515</v>
+        <v>97731.26880925693</v>
       </c>
       <c r="D160">
-        <v>178291.1003617913</v>
+        <v>175492.2955001233</v>
       </c>
       <c r="E160">
-        <v>255129.1157820356</v>
+        <v>254450.8053235751</v>
       </c>
       <c r="F160">
-        <v>332337.160078128</v>
+        <v>312338.903874356</v>
       </c>
       <c r="G160">
-        <v>396682.1745119982</v>
+        <v>315832.3898992584</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -7328,19 +7328,19 @@
         <v>0</v>
       </c>
       <c r="C161">
-        <v>101868.6907811515</v>
+        <v>97730.56880925696</v>
       </c>
       <c r="D161">
-        <v>178289.7003617913</v>
+        <v>175490.895500135</v>
       </c>
       <c r="E161">
-        <v>255127.0158161906</v>
+        <v>254456.1860737858</v>
       </c>
       <c r="F161">
-        <v>332347.0744814175</v>
+        <v>313836.527146822</v>
       </c>
       <c r="G161">
-        <v>397944.7123056322</v>
+        <v>317829.5621568831</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -7351,19 +7351,19 @@
         <v>0</v>
       </c>
       <c r="C162">
-        <v>101867.9907811514</v>
+        <v>97729.86880925692</v>
       </c>
       <c r="D162">
-        <v>178288.3003617914</v>
+        <v>175489.4955001413</v>
       </c>
       <c r="E162">
-        <v>255124.9158370224</v>
+        <v>254459.9216987207</v>
       </c>
       <c r="F162">
-        <v>332354.2651708938</v>
+        <v>315282.8661502801</v>
       </c>
       <c r="G162">
-        <v>399125.3920682415</v>
+        <v>319826.5863675067</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -7374,19 +7374,19 @@
         <v>0</v>
       </c>
       <c r="C163">
-        <v>101867.2907811515</v>
+        <v>97729.16880925698</v>
       </c>
       <c r="D163">
-        <v>178286.9003617913</v>
+        <v>175488.0955001446</v>
       </c>
       <c r="E163">
-        <v>255122.8158496518</v>
+        <v>254462.3481997517</v>
       </c>
       <c r="F163">
-        <v>332359.2713416136</v>
+        <v>316675.5773406896</v>
       </c>
       <c r="G163">
-        <v>400225.0846072198</v>
+        <v>321823.425183939</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -7397,19 +7397,19 @@
         <v>0</v>
       </c>
       <c r="C164">
-        <v>101866.5907811515</v>
+        <v>97728.46880925694</v>
       </c>
       <c r="D164">
-        <v>178285.5003617914</v>
+        <v>175486.6955001465</v>
       </c>
       <c r="E164">
-        <v>255120.7158572628</v>
+        <v>254463.7394236115</v>
       </c>
       <c r="F164">
-        <v>332362.536330253</v>
+        <v>318012.5583902574</v>
       </c>
       <c r="G164">
-        <v>401245.1491383037</v>
+        <v>323820.0315148469</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_0.xlsx
+++ b/data/output/best_policy_0.xlsx
@@ -415,10 +415,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C3">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="D3">
         <v>0.9999999999999999</v>
@@ -435,16 +435,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E4">
-        <v>0.9999999999999999</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="F4">
         <v>0.9999999999999999</v>
@@ -455,19 +455,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F5">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,19 +475,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,19 +515,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F8">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -535,19 +535,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -555,19 +555,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F10">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -575,19 +575,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -595,19 +595,19 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D12">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.9999999999999999</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -674,19 +674,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>568.5102688193948</v>
+        <v>1212.41674945305</v>
       </c>
       <c r="D3">
-        <v>703.9027013723537</v>
+        <v>1722.4064143668</v>
       </c>
       <c r="E3">
-        <v>760.0308335777204</v>
+        <v>2089.231127677976</v>
       </c>
       <c r="F3">
-        <v>783.2682508549036</v>
+        <v>2352.033231054352</v>
       </c>
       <c r="G3">
-        <v>792.8522985985705</v>
+        <v>2539.674211233682</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>849.7531635272344</v>
+        <v>1623.995665413015</v>
       </c>
       <c r="D4">
-        <v>1204.136472800268</v>
+        <v>2493.04032055326</v>
       </c>
       <c r="E4">
-        <v>1400.610321637009</v>
+        <v>3191.592220746678</v>
       </c>
       <c r="F4">
-        <v>1502.532377961226</v>
+        <v>3781.398768337493</v>
       </c>
       <c r="G4">
-        <v>1553.088201251513</v>
+        <v>4266.693441466648</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -720,19 +720,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>952.7537150259799</v>
+        <v>1770.741858852333</v>
       </c>
       <c r="D5">
-        <v>1488.319545470579</v>
+        <v>2874.488087664932</v>
       </c>
       <c r="E5">
-        <v>1861.958113210707</v>
+        <v>3825.602457428389</v>
       </c>
       <c r="F5">
-        <v>2097.811812809299</v>
+        <v>4632.673403087493</v>
       </c>
       <c r="G5">
-        <v>2236.248331084179</v>
+        <v>5331.818805302913</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>982.0242719254993</v>
+        <v>1805.187057157854</v>
       </c>
       <c r="D6">
-        <v>1619.646969544165</v>
+        <v>3031.913281433989</v>
       </c>
       <c r="E6">
-        <v>2143.774098958515</v>
+        <v>4155.767730046848</v>
       </c>
       <c r="F6">
-        <v>2532.401856586715</v>
+        <v>5167.851948848164</v>
       </c>
       <c r="G6">
-        <v>2796.923562098554</v>
+        <v>6054.974856847156</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -766,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>988.4210043212719</v>
+        <v>1811.316672279893</v>
       </c>
       <c r="D7">
-        <v>1669.851022329467</v>
+        <v>3085.397091115373</v>
       </c>
       <c r="E7">
-        <v>2290.649443635763</v>
+        <v>4313.616160281375</v>
       </c>
       <c r="F7">
-        <v>2810.619271627532</v>
+        <v>5456.310017575443</v>
       </c>
       <c r="G7">
-        <v>3211.249730648402</v>
+        <v>6512.877426709547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,19 +789,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>989.1406784150903</v>
+        <v>1811.73469241515</v>
       </c>
       <c r="D8">
-        <v>1685.609562363491</v>
+        <v>3099.20118283123</v>
       </c>
       <c r="E8">
-        <v>2356.368985236883</v>
+        <v>4376.082492109012</v>
       </c>
       <c r="F8">
-        <v>2967.047396040814</v>
+        <v>5609.606461501012</v>
       </c>
       <c r="G8">
-        <v>3485.563993692804</v>
+        <v>6770.116395576151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -812,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>988.6861941400084</v>
+        <v>1811.192631162196</v>
       </c>
       <c r="D9">
-        <v>1689.179569231246</v>
+        <v>3101.450420214808</v>
       </c>
       <c r="E9">
-        <v>2381.41109094279</v>
+        <v>4395.925666453129</v>
       </c>
       <c r="F9">
-        <v>3044.415371354994</v>
+        <v>5675.786407295155</v>
       </c>
       <c r="G9">
-        <v>3648.213118969486</v>
+        <v>6915.762230259736</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -835,19 +835,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>988.0235566073881</v>
+        <v>1810.512241332654</v>
       </c>
       <c r="D10">
-        <v>1689.052750185333</v>
+        <v>3100.82125669378</v>
       </c>
       <c r="E10">
-        <v>2388.976478719634</v>
+        <v>4400.400238342464</v>
       </c>
       <c r="F10">
-        <v>3077.788670713949</v>
+        <v>5699.718747265249</v>
       </c>
       <c r="G10">
-        <v>3734.513720619211</v>
+        <v>6982.773116496654</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -858,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>987.3286305800456</v>
+        <v>1809.814412413137</v>
       </c>
       <c r="D11">
-        <v>1687.944822911063</v>
+        <v>3099.566525533638</v>
       </c>
       <c r="E11">
-        <v>2389.971577956166</v>
+        <v>4400.056866462886</v>
       </c>
       <c r="F11">
-        <v>3089.739328956342</v>
+        <v>5706.178547430913</v>
       </c>
       <c r="G11">
-        <v>3775.133560816641</v>
+        <v>7009.224880579421</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -881,19 +881,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>986.6292525044446</v>
+        <v>1809.114629229734</v>
       </c>
       <c r="D12">
-        <v>1686.605447721542</v>
+        <v>3098.191232407242</v>
       </c>
       <c r="E12">
-        <v>2388.771031903215</v>
+        <v>4398.380160895314</v>
       </c>
       <c r="F12">
-        <v>3092.41728266269</v>
+        <v>5706.272707423606</v>
       </c>
       <c r="G12">
-        <v>3791.457238831366</v>
+        <v>7017.225293438686</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>985.9293219515448</v>
+        <v>1808.414648947022</v>
       </c>
       <c r="D13">
-        <v>1685.216932827975</v>
+        <v>3096.795060978673</v>
       </c>
       <c r="E13">
-        <v>2386.910118360111</v>
+        <v>4396.373059326382</v>
       </c>
       <c r="F13">
-        <v>3091.482882383649</v>
+        <v>5704.296486880513</v>
       </c>
       <c r="G13">
-        <v>3796.150389911241</v>
+        <v>7017.749481501676</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_0.xlsx
+++ b/data/output/best_policy_0.xlsx
@@ -367,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9999999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C2">
         <v>0.9999999999999999</v>
@@ -418,7 +418,7 @@
         <v>0.6</v>
       </c>
       <c r="C3">
-        <v>0.7999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="D3">
         <v>0.9999999999999999</v>
@@ -441,10 +441,10 @@
         <v>0.7</v>
       </c>
       <c r="D4">
-        <v>0.7</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E4">
-        <v>0.7999999999999999</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F4">
         <v>0.9999999999999999</v>
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -464,10 +464,10 @@
         <v>0.7</v>
       </c>
       <c r="E5">
-        <v>0.7</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="F5">
-        <v>0.7</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -475,7 +475,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
         <v>0.6</v>
@@ -487,7 +487,7 @@
         <v>0.7</v>
       </c>
       <c r="F6">
-        <v>0.7</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -495,19 +495,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
         <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="F7">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -515,10 +515,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
         <v>0.6</v>
@@ -527,7 +527,7 @@
         <v>0.6</v>
       </c>
       <c r="F8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -535,13 +535,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E9">
         <v>0.6</v>
@@ -555,13 +555,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E10">
         <v>0.6</v>
@@ -575,16 +575,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
         <v>0.6</v>
@@ -595,19 +595,139 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F12">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>0.5</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>0.5</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.5</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -617,7 +737,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -674,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1212.41674945305</v>
+        <v>1653.734550527429</v>
       </c>
       <c r="D3">
-        <v>1722.4064143668</v>
+        <v>2193.052844741533</v>
       </c>
       <c r="E3">
-        <v>2089.231127677976</v>
+        <v>2522.894351487579</v>
       </c>
       <c r="F3">
-        <v>2352.033231054352</v>
+        <v>2720.730664452934</v>
       </c>
       <c r="G3">
-        <v>2539.674211233682</v>
+        <v>2837.749488606652</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -697,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1623.995665413015</v>
+        <v>2796.227534929616</v>
       </c>
       <c r="D4">
-        <v>2493.04032055326</v>
+        <v>3666.387940932089</v>
       </c>
       <c r="E4">
-        <v>3191.592220746678</v>
+        <v>4369.483690169779</v>
       </c>
       <c r="F4">
-        <v>3781.398768337493</v>
+        <v>4896.19718623075</v>
       </c>
       <c r="G4">
-        <v>4266.693441466648</v>
+        <v>5270.988365130853</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -720,19 +840,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1770.741858852333</v>
+        <v>3501.209236812307</v>
       </c>
       <c r="D5">
-        <v>2874.488087664932</v>
+        <v>4797.903900153237</v>
       </c>
       <c r="E5">
-        <v>3825.602457428389</v>
+        <v>5724.249107349831</v>
       </c>
       <c r="F5">
-        <v>4632.673403087493</v>
+        <v>6531.649570250158</v>
       </c>
       <c r="G5">
-        <v>5331.818805302913</v>
+        <v>7194.740809713038</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -743,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1805.187057157854</v>
+        <v>3981.67013297209</v>
       </c>
       <c r="D6">
-        <v>3031.913281433989</v>
+        <v>5734.659973976664</v>
       </c>
       <c r="E6">
-        <v>4155.767730046848</v>
+        <v>6915.211235869797</v>
       </c>
       <c r="F6">
-        <v>5167.851948848164</v>
+        <v>7852.777202735321</v>
       </c>
       <c r="G6">
-        <v>6054.974856847156</v>
+        <v>8714.191463614186</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -766,19 +886,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1811.316672279893</v>
+        <v>4248.375788301116</v>
       </c>
       <c r="D7">
-        <v>3085.397091115373</v>
+        <v>6426.953671923773</v>
       </c>
       <c r="E7">
-        <v>4313.616160281375</v>
+        <v>7923.293881534781</v>
       </c>
       <c r="F7">
-        <v>5456.310017575443</v>
+        <v>9070.480945905607</v>
       </c>
       <c r="G7">
-        <v>6512.877426709547</v>
+        <v>10018.61021819091</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -789,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>1811.73469241515</v>
+        <v>4367.752647307874</v>
       </c>
       <c r="D8">
-        <v>3099.20118283123</v>
+        <v>6891.567610655453</v>
       </c>
       <c r="E8">
-        <v>4376.082492109012</v>
+        <v>8784.906925536503</v>
       </c>
       <c r="F8">
-        <v>5609.606461501012</v>
+        <v>10132.75752666396</v>
       </c>
       <c r="G8">
-        <v>6770.116395576151</v>
+        <v>11255.38744393147</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -812,19 +932,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>1811.192631162196</v>
+        <v>4414.428580158517</v>
       </c>
       <c r="D9">
-        <v>3101.450420214808</v>
+        <v>7250.80882171256</v>
       </c>
       <c r="E9">
-        <v>4395.925666453129</v>
+        <v>9429.470518259721</v>
       </c>
       <c r="F9">
-        <v>5675.786407295155</v>
+        <v>11091.0720599975</v>
       </c>
       <c r="G9">
-        <v>6915.762230259736</v>
+        <v>12365.1153846708</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -835,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>1810.512241332654</v>
+        <v>4430.354489179687</v>
       </c>
       <c r="D10">
-        <v>3100.82125669378</v>
+        <v>7457.231830322606</v>
       </c>
       <c r="E10">
-        <v>4400.400238342464</v>
+        <v>9906.952770620701</v>
       </c>
       <c r="F10">
-        <v>5699.718747265249</v>
+        <v>11873.36250876853</v>
       </c>
       <c r="G10">
-        <v>6982.773116496654</v>
+        <v>13371.38776982598</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -858,19 +978,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1809.814412413137</v>
+        <v>4434.899959001946</v>
       </c>
       <c r="D11">
-        <v>3099.566525533638</v>
+        <v>7565.234451265661</v>
       </c>
       <c r="E11">
-        <v>4400.056866462886</v>
+        <v>10304.30599071745</v>
       </c>
       <c r="F11">
-        <v>5706.178547430913</v>
+        <v>12491.38929726182</v>
       </c>
       <c r="G11">
-        <v>7009.224880579421</v>
+        <v>14257.89060537213</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -881,19 +1001,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>1809.114629229734</v>
+        <v>4435.701564802701</v>
       </c>
       <c r="D12">
-        <v>3098.191232407242</v>
+        <v>7616.537107078434</v>
       </c>
       <c r="E12">
-        <v>4398.380160895314</v>
+        <v>10567.936475381</v>
       </c>
       <c r="F12">
-        <v>5706.272707423606</v>
+        <v>12976.88708135268</v>
       </c>
       <c r="G12">
-        <v>7017.225293438686</v>
+        <v>14992.19000844011</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -904,19 +1024,157 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>1808.414648947022</v>
+        <v>4435.394701430177</v>
       </c>
       <c r="D13">
-        <v>3096.795060978673</v>
+        <v>7638.463317410698</v>
       </c>
       <c r="E13">
-        <v>4396.373059326382</v>
+        <v>10730.39128321585</v>
       </c>
       <c r="F13">
-        <v>5704.296486880513</v>
+        <v>13396.98868848782</v>
       </c>
       <c r="G13">
-        <v>7017.749481501676</v>
+        <v>15592.51559118137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>4434.789482255622</v>
+      </c>
+      <c r="D14">
+        <v>7646.596558121955</v>
+      </c>
+      <c r="E14">
+        <v>10822.883005871</v>
+      </c>
+      <c r="F14">
+        <v>13700.59825200349</v>
+      </c>
+      <c r="G14">
+        <v>16082.8891583903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>4434.110649694976</v>
+      </c>
+      <c r="D15">
+        <v>7648.812852233073</v>
+      </c>
+      <c r="E15">
+        <v>10871.35270823377</v>
+      </c>
+      <c r="F15">
+        <v>13907.21455315471</v>
+      </c>
+      <c r="G15">
+        <v>16518.29915138164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4433.415051615571</v>
+      </c>
+      <c r="D16">
+        <v>7648.692309181288</v>
+      </c>
+      <c r="E16">
+        <v>10894.49314572351</v>
+      </c>
+      <c r="F16">
+        <v>14038.89524910842</v>
+      </c>
+      <c r="G16">
+        <v>16851.39488364668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4432.715907913517</v>
+      </c>
+      <c r="D17">
+        <v>7647.716377193415</v>
+      </c>
+      <c r="E17">
+        <v>10904.20451907682</v>
+      </c>
+      <c r="F17">
+        <v>14117.2814879815</v>
+      </c>
+      <c r="G17">
+        <v>17093.75876461635</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4432.016064361718</v>
+      </c>
+      <c r="D18">
+        <v>7646.448564984106</v>
+      </c>
+      <c r="E18">
+        <v>10907.30682345874</v>
+      </c>
+      <c r="F18">
+        <v>14160.66999802235</v>
+      </c>
+      <c r="G18">
+        <v>17260.57527125525</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4431.316091304371</v>
+      </c>
+      <c r="D19">
+        <v>7645.087451515185</v>
+      </c>
+      <c r="E19">
+        <v>10907.37092859024</v>
+      </c>
+      <c r="F19">
+        <v>14182.70569734737</v>
+      </c>
+      <c r="G19">
+        <v>17368.9412135203</v>
       </c>
     </row>
   </sheetData>

--- a/data/output/best_policy_0.xlsx
+++ b/data/output/best_policy_0.xlsx
@@ -367,13 +367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -389,13 +389,25 @@
       <c r="F1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <v>0.9999999999999999</v>
@@ -409,8 +421,20 @@
       <c r="F2">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -429,16 +453,28 @@
       <c r="F3">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J3">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
         <v>0.9999999999999999</v>
@@ -449,8 +485,20 @@
       <c r="F4">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J4">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -469,8 +517,20 @@
       <c r="F5">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J5">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -489,8 +549,20 @@
       <c r="F6">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J6">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -504,13 +576,25 @@
         <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -527,10 +611,22 @@
         <v>0.6</v>
       </c>
       <c r="F8">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.6</v>
+      </c>
+      <c r="G8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="H8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -549,8 +645,20 @@
       <c r="F9">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>0.6</v>
+      </c>
+      <c r="H9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J9">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -569,8 +677,20 @@
       <c r="F10">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>0.6</v>
+      </c>
+      <c r="H10">
+        <v>0.6</v>
+      </c>
+      <c r="I10">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -589,8 +709,20 @@
       <c r="F11">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>0.6</v>
+      </c>
+      <c r="H11">
+        <v>0.6</v>
+      </c>
+      <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -609,8 +741,20 @@
       <c r="F12">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>0.6</v>
+      </c>
+      <c r="H12">
+        <v>0.6</v>
+      </c>
+      <c r="I12">
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -629,8 +773,20 @@
       <c r="F13">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13">
+        <v>0.6</v>
+      </c>
+      <c r="H13">
+        <v>0.6</v>
+      </c>
+      <c r="I13">
+        <v>0.6</v>
+      </c>
+      <c r="J13">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -649,8 +805,20 @@
       <c r="F14">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>0.6</v>
+      </c>
+      <c r="I14">
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -669,8 +837,20 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0.5</v>
+      </c>
+      <c r="H15">
+        <v>0.6</v>
+      </c>
+      <c r="I15">
+        <v>0.6</v>
+      </c>
+      <c r="J15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -689,8 +869,20 @@
       <c r="F16">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>0.6</v>
+      </c>
+      <c r="J16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -709,25 +901,17 @@
       <c r="F17">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <v>0.5</v>
-      </c>
-      <c r="C18">
-        <v>0.5</v>
-      </c>
-      <c r="D18">
-        <v>0.5</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <v>0.5</v>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
+        <v>0.5</v>
+      </c>
+      <c r="I17">
+        <v>0.6</v>
+      </c>
+      <c r="J17">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -737,13 +921,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:11">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -762,8 +946,20 @@
       <c r="G1" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -785,8 +981,20 @@
       <c r="G2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -794,22 +1002,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1653.734550527429</v>
+        <v>1606.881393592354</v>
       </c>
       <c r="D3">
-        <v>2193.052844741533</v>
+        <v>2165.415219595079</v>
       </c>
       <c r="E3">
-        <v>2522.894351487579</v>
+        <v>2506.033519433562</v>
       </c>
       <c r="F3">
-        <v>2720.730664452934</v>
+        <v>2710.161438325579</v>
       </c>
       <c r="G3">
-        <v>2837.749488606652</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2831.196336070091</v>
+      </c>
+      <c r="H3">
+        <v>2902.261693566078</v>
+      </c>
+      <c r="I3">
+        <v>2943.634617830735</v>
+      </c>
+      <c r="J3">
+        <v>2967.542725837814</v>
+      </c>
+      <c r="K3">
+        <v>2981.26289659976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -817,22 +1037,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2796.227534929616</v>
+        <v>2782.601123711706</v>
       </c>
       <c r="D4">
-        <v>3666.387940932089</v>
+        <v>3644.629358662798</v>
       </c>
       <c r="E4">
-        <v>4369.483690169779</v>
+        <v>4346.7818298747</v>
       </c>
       <c r="F4">
-        <v>4896.19718623075</v>
+        <v>4875.57814845955</v>
       </c>
       <c r="G4">
-        <v>5270.988365130853</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>5254.234167588448</v>
+      </c>
+      <c r="H4">
+        <v>5515.360336031827</v>
+      </c>
+      <c r="I4">
+        <v>5690.267705290923</v>
+      </c>
+      <c r="J4">
+        <v>5804.721445888899</v>
+      </c>
+      <c r="K4">
+        <v>5878.163055317799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -840,22 +1072,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3501.209236812307</v>
+        <v>3501.852137995903</v>
       </c>
       <c r="D5">
-        <v>4797.903900153237</v>
+        <v>4723.252709250396</v>
       </c>
       <c r="E5">
-        <v>5724.249107349831</v>
+        <v>5669.306994036121</v>
       </c>
       <c r="F5">
-        <v>6531.649570250158</v>
+        <v>6487.566511083569</v>
       </c>
       <c r="G5">
-        <v>7194.740809713038</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>7158.984403039655</v>
+      </c>
+      <c r="H5">
+        <v>7685.213216231298</v>
+      </c>
+      <c r="I5">
+        <v>8082.018646025041</v>
+      </c>
+      <c r="J5">
+        <v>8371.658989157642</v>
+      </c>
+      <c r="K5">
+        <v>8577.251865422742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -863,22 +1107,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3981.67013297209</v>
+        <v>4036.140225025848</v>
       </c>
       <c r="D6">
-        <v>5734.659973976664</v>
+        <v>5744.916427972484</v>
       </c>
       <c r="E6">
-        <v>6915.211235869797</v>
+        <v>6805.627665773483</v>
       </c>
       <c r="F6">
-        <v>7852.777202735321</v>
+        <v>7765.064686652603</v>
       </c>
       <c r="G6">
-        <v>8714.191463614186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>8643.633027914706</v>
+      </c>
+      <c r="H6">
+        <v>9409.896201113801</v>
+      </c>
+      <c r="I6">
+        <v>10049.98815853577</v>
+      </c>
+      <c r="J6">
+        <v>10564.85338809776</v>
+      </c>
+      <c r="K6">
+        <v>10965.3976296963</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -886,22 +1142,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4248.375788301116</v>
+        <v>4316.87802416971</v>
       </c>
       <c r="D7">
-        <v>6426.953671923773</v>
+        <v>6466.526207529992</v>
       </c>
       <c r="E7">
-        <v>7923.293881534781</v>
+        <v>7918.421963679272</v>
       </c>
       <c r="F7">
-        <v>9070.480945905607</v>
+        <v>8936.787653168605</v>
       </c>
       <c r="G7">
-        <v>10018.61021819091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9904.839319309642</v>
+      </c>
+      <c r="H7">
+        <v>10820.15014581657</v>
+      </c>
+      <c r="I7">
+        <v>11651.32707395172</v>
+      </c>
+      <c r="J7">
+        <v>12377.88121740383</v>
+      </c>
+      <c r="K7">
+        <v>12990.92772281448</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -909,22 +1177,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4367.752647307874</v>
+        <v>4444.642683620494</v>
       </c>
       <c r="D8">
-        <v>6891.567610655453</v>
+        <v>6995.678399484545</v>
       </c>
       <c r="E8">
-        <v>8784.906925536503</v>
+        <v>8819.051250226752</v>
       </c>
       <c r="F8">
-        <v>10132.75752666396</v>
+        <v>10095.42105758657</v>
       </c>
       <c r="G8">
-        <v>11255.38744393147</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>11094.23661055859</v>
+      </c>
+      <c r="H8">
+        <v>12072.08972692483</v>
+      </c>
+      <c r="I8">
+        <v>13013.98170939811</v>
+      </c>
+      <c r="J8">
+        <v>13892.57766216627</v>
+      </c>
+      <c r="K8">
+        <v>14685.78671529319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -932,22 +1212,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4414.428580158517</v>
+        <v>4495.496954266174</v>
       </c>
       <c r="D9">
-        <v>7250.80882171256</v>
+        <v>7390.06720184256</v>
       </c>
       <c r="E9">
-        <v>9429.470518259721</v>
+        <v>9510.193713692373</v>
       </c>
       <c r="F9">
-        <v>11091.0720599975</v>
+        <v>11106.20121735366</v>
       </c>
       <c r="G9">
-        <v>12365.1153846708</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>12280.55712655898</v>
+      </c>
+      <c r="H9">
+        <v>13271.9438899162</v>
+      </c>
+      <c r="I9">
+        <v>14259.81863978444</v>
+      </c>
+      <c r="J9">
+        <v>15222.90354883469</v>
+      </c>
+      <c r="K9">
+        <v>16137.98633055677</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -955,22 +1247,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4430.354489179687</v>
+        <v>4513.206986547878</v>
       </c>
       <c r="D10">
-        <v>7457.231830322606</v>
+        <v>7621.210595156681</v>
       </c>
       <c r="E10">
-        <v>9906.952770620701</v>
+        <v>10061.26246004861</v>
       </c>
       <c r="F10">
-        <v>11873.36250876853</v>
+        <v>11940.76470969826</v>
       </c>
       <c r="G10">
-        <v>13371.38776982598</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>13362.73197817678</v>
+      </c>
+      <c r="H10">
+        <v>14473.46307132427</v>
+      </c>
+      <c r="I10">
+        <v>15469.53966830855</v>
+      </c>
+      <c r="J10">
+        <v>16466.21907556407</v>
+      </c>
+      <c r="K10">
+        <v>17446.41947636716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -978,22 +1282,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4434.899959001946</v>
+        <v>4518.419058741602</v>
       </c>
       <c r="D11">
-        <v>7565.234451265661</v>
+        <v>7744.527215829506</v>
       </c>
       <c r="E11">
-        <v>10304.30599071745</v>
+        <v>10507.85548813331</v>
       </c>
       <c r="F11">
-        <v>12491.38929726182</v>
+        <v>12616.31901915279</v>
       </c>
       <c r="G11">
-        <v>14257.89060537213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14302.37609946201</v>
+      </c>
+      <c r="H11">
+        <v>15602.18220455267</v>
+      </c>
+      <c r="I11">
+        <v>16673.90352729864</v>
+      </c>
+      <c r="J11">
+        <v>17679.2481636677</v>
+      </c>
+      <c r="K11">
+        <v>18686.41549347389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1001,22 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4435.701564802701</v>
+        <v>4519.44206013259</v>
       </c>
       <c r="D12">
-        <v>7616.537107078434</v>
+        <v>7804.360086543902</v>
       </c>
       <c r="E12">
-        <v>10567.936475381</v>
+        <v>10810.17038776443</v>
       </c>
       <c r="F12">
-        <v>12976.88708135268</v>
+        <v>13181.84494909088</v>
       </c>
       <c r="G12">
-        <v>14992.19000844011</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>15097.81164809291</v>
+      </c>
+      <c r="H12">
+        <v>16619.83554667997</v>
+      </c>
+      <c r="I12">
+        <v>17833.30575514485</v>
+      </c>
+      <c r="J12">
+        <v>18883.18091264092</v>
+      </c>
+      <c r="K12">
+        <v>19899.40077546352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1024,22 +1352,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4435.394701430177</v>
+        <v>4519.201376677396</v>
       </c>
       <c r="D13">
-        <v>7638.463317410698</v>
+        <v>7830.608975007724</v>
       </c>
       <c r="E13">
-        <v>10730.39128321585</v>
+        <v>11000.32498922002</v>
       </c>
       <c r="F13">
-        <v>13396.98868848782</v>
+        <v>13661.47983317739</v>
       </c>
       <c r="G13">
-        <v>15592.51559118137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>15763.87592368235</v>
+      </c>
+      <c r="H13">
+        <v>17512.2442887989</v>
+      </c>
+      <c r="I13">
+        <v>18907.34383307443</v>
+      </c>
+      <c r="J13">
+        <v>20061.9448488097</v>
+      </c>
+      <c r="K13">
+        <v>21100.962100491</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1047,22 +1387,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4434.789482255622</v>
+        <v>4518.614142211981</v>
       </c>
       <c r="D14">
-        <v>7646.596558121955</v>
+        <v>7840.749862488857</v>
       </c>
       <c r="E14">
-        <v>10822.883005871</v>
+        <v>11111.03780212944</v>
       </c>
       <c r="F14">
-        <v>13700.59825200349</v>
+        <v>14015.18890219893</v>
       </c>
       <c r="G14">
-        <v>16082.8891583903</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>16339.39948352728</v>
+      </c>
+      <c r="H14">
+        <v>18280.88590211606</v>
+      </c>
+      <c r="I14">
+        <v>19877.59346234851</v>
+      </c>
+      <c r="J14">
+        <v>21176.06129725365</v>
+      </c>
+      <c r="K14">
+        <v>22291.51633516478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1070,22 +1422,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4434.110649694976</v>
+        <v>4517.939789926432</v>
       </c>
       <c r="D15">
-        <v>7648.812852233073</v>
+        <v>7843.825567389</v>
       </c>
       <c r="E15">
-        <v>10871.35270823377</v>
+        <v>11170.57244597035</v>
       </c>
       <c r="F15">
-        <v>13907.21455315471</v>
+        <v>14260.99600096508</v>
       </c>
       <c r="G15">
-        <v>16518.29915138164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>16842.69970361151</v>
+      </c>
+      <c r="H15">
+        <v>18940.63726363686</v>
+      </c>
+      <c r="I15">
+        <v>20734.83162694027</v>
+      </c>
+      <c r="J15">
+        <v>22206.42542742422</v>
+      </c>
+      <c r="K15">
+        <v>23433.60121337213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1093,22 +1457,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4433.415051615571</v>
+        <v>4517.245222129853</v>
       </c>
       <c r="D16">
-        <v>7648.692309181288</v>
+        <v>7844.045763032158</v>
       </c>
       <c r="E16">
-        <v>10894.49314572351</v>
+        <v>11199.94322859127</v>
       </c>
       <c r="F16">
-        <v>14038.89524910842</v>
+        <v>14421.27120407976</v>
       </c>
       <c r="G16">
-        <v>16851.39488364668</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>17235.51276627644</v>
+      </c>
+      <c r="H16">
+        <v>19523.76432330328</v>
+      </c>
+      <c r="I16">
+        <v>21483.92030082205</v>
+      </c>
+      <c r="J16">
+        <v>23138.82692702615</v>
+      </c>
+      <c r="K16">
+        <v>24509.57974707755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1116,22 +1492,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4432.715907913517</v>
+        <v>4516.54629843463</v>
       </c>
       <c r="D17">
-        <v>7647.716377193415</v>
+        <v>7843.195527796208</v>
       </c>
       <c r="E17">
-        <v>10904.20451907682</v>
+        <v>11212.9217941576</v>
       </c>
       <c r="F17">
-        <v>14117.2814879815</v>
+        <v>14519.15865481477</v>
       </c>
       <c r="G17">
-        <v>17093.75876461635</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>17527.39214131497</v>
+      </c>
+      <c r="H17">
+        <v>20045.15257923283</v>
+      </c>
+      <c r="I17">
+        <v>22139.3997629273</v>
+      </c>
+      <c r="J17">
+        <v>23968.80220304227</v>
+      </c>
+      <c r="K17">
+        <v>25503.17376139535</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1139,42 +1527,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4432.016064361718</v>
+        <v>4515.846498732396</v>
       </c>
       <c r="D18">
-        <v>7646.448564984106</v>
+        <v>7841.971042581759</v>
       </c>
       <c r="E18">
-        <v>10907.30682345874</v>
+        <v>11217.62653576369</v>
       </c>
       <c r="F18">
-        <v>14160.66999802235</v>
+        <v>14575.00839102939</v>
       </c>
       <c r="G18">
-        <v>17260.57527125525</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>4431.316091304371</v>
-      </c>
-      <c r="D19">
-        <v>7645.087451515185</v>
-      </c>
-      <c r="E19">
-        <v>10907.37092859024</v>
-      </c>
-      <c r="F19">
-        <v>14182.70569734737</v>
-      </c>
-      <c r="G19">
-        <v>17368.9412135203</v>
+        <v>17732.9537004081</v>
+      </c>
+      <c r="H18">
+        <v>20468.90004844419</v>
+      </c>
+      <c r="I18">
+        <v>22728.66088338173</v>
+      </c>
+      <c r="J18">
+        <v>24703.14351701023</v>
+      </c>
+      <c r="K18">
+        <v>26404.72476207088</v>
       </c>
     </row>
   </sheetData>
